--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Notizen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09AE62-6700-294F-85EF-684406810EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5359F0-CE91-4B3C-A83A-ED25E2D3EE64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -380,6 +380,9 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -405,7 +408,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -431,12 +437,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -512,13 +512,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:L11" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components"/>
     <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner"/>
     <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer"/>
@@ -533,11 +533,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D3" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources"/>
   </tableColumns>
@@ -869,18 +869,18 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -902,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -913,7 +913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -924,7 +924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -946,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -969,7 +969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="4"/>
     </row>
   </sheetData>
@@ -993,24 +993,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="96" zoomScaleNormal="137" workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="5">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
@@ -1058,7 +1058,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1093,10 +1093,10 @@
         <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1106,7 +1106,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1139,16 +1139,16 @@
         <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
         <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>32</v>
       </c>
@@ -1207,26 +1207,26 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1.2</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.3</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.5</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1.6</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.7</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1.8</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2.1</v>
       </c>
@@ -1566,20 +1566,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1593,32 +1593,470 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>42262</v>
+        <v>43791</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>42263</v>
-      </c>
-      <c r="C3">
-        <v>190</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43799</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43820</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43846</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5359F0-CE91-4B3C-A83A-ED25E2D3EE64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3AF9-3014-490A-83A3-62DAEAFBD485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -346,9 +346,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,7 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -373,6 +369,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,121 +880,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.86328125" style="16"/>
+    <col min="6" max="6" width="49" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.86328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="14" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="14" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,198 +1016,198 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>25</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K14" t="s">
         <v>32</v>
       </c>
@@ -1206,352 +1225,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>1.2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
         <v>1.3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>4</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
         <v>1.4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>1.5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>1.6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
         <v>1.7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
         <v>1.8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
         <v>2.1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1572,28 +1591,28 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1615,7 +1634,7 @@
         <v>43792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1623,7 +1642,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1631,7 +1650,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1639,7 +1658,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1647,7 +1666,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1655,7 +1674,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1685,7 +1704,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1693,7 +1712,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1701,7 +1720,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1709,7 +1728,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1717,7 +1736,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1725,7 +1744,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1741,7 +1760,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1765,7 +1784,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1781,7 +1800,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1813,7 +1832,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1821,7 +1840,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1829,7 +1848,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1837,7 +1856,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1859,7 +1878,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1867,7 +1886,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1891,7 +1910,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1907,7 +1926,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1915,7 +1934,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1923,7 +1942,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1931,7 +1950,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1939,7 +1958,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1947,7 +1966,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1955,7 +1974,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1963,7 +1982,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1971,7 +1990,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1979,7 +1998,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1995,7 +2014,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2003,7 +2022,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2019,7 +2038,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2035,7 +2054,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2043,7 +2062,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2051,7 +2070,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3AF9-3014-490A-83A3-62DAEAFBD485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087ACC5-79AA-4562-97CB-21055F252C14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -880,21 +880,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.86328125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -927,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -971,12 +971,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -988,7 +988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1016,20 +1016,20 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>32</v>
       </c>
@@ -1226,26 +1226,26 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1377,11 +1377,14 @@
       <c r="I4" s="5">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1587,18 +1590,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1620,13 +1623,13 @@
         <v>43791</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>43792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087ACC5-79AA-4562-97CB-21055F252C14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A6C1E-9817-094E-8CE5-1CE6C3FB559E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -392,7 +392,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -884,17 +884,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -927,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -971,12 +971,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -988,7 +988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1016,20 +1016,20 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>32</v>
       </c>
@@ -1225,27 +1225,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="C10" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1444,11 +1444,14 @@
       <c r="I6" s="5">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1594,14 +1597,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>43792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A6C1E-9817-094E-8CE5-1CE6C3FB559E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9512DDF-E931-478C-BB50-3832682738BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -392,7 +392,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -884,17 +884,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -927,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -971,12 +971,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -988,7 +988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1016,20 +1016,20 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>32</v>
       </c>
@@ -1225,27 +1225,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1312,11 +1312,14 @@
         <f>6*2</f>
         <v>12</v>
       </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1345,11 +1348,14 @@
         <f>6*1</f>
         <v>6</v>
       </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1593,18 +1599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>43792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9512DDF-E931-478C-BB50-3832682738BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708CA5D-82B8-40EB-9FEA-D6DD73716FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>vaadin, eclipse</t>
+  </si>
+  <si>
+    <t>progress</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1384,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1454,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708CA5D-82B8-40EB-9FEA-D6DD73716FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB8604-2036-4EFD-BC5C-404D51754FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -93,9 +96,6 @@
     <t>Remaining Effort</t>
   </si>
   <si>
-    <t>Remaining Ressources</t>
-  </si>
-  <si>
     <t>Time of Record</t>
   </si>
   <si>
@@ -271,6 +271,35 @@
   </si>
   <si>
     <t>progress</t>
+  </si>
+  <si>
+    <t>Remaining Ressources [days]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Start Sprint 2</t>
+  </si>
+  <si>
+    <t>Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login recherche 2 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login nach MVP designen - 6 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login Prozess Quicktest - 2 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
+Janahan - 1.4: PatientView Design - 4 Std</t>
   </si>
 </sst>
 </file>
@@ -340,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -388,6 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +587,7 @@
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
     <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
-    <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources"/>
+    <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,7 +917,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,73 +938,73 @@
         <v>17</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,26 +1014,26 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1016,7 +1049,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="137" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1075,7 +1108,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1085,10 +1118,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1109,10 +1142,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
@@ -1133,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1155,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -1175,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -1195,10 +1228,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1212,7 +1245,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1262,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1319,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1330,19 +1363,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1366,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -1389,8 +1422,11 @@
       <c r="J4">
         <v>12</v>
       </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1401,19 +1437,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1433,19 +1469,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
@@ -1457,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1468,19 +1504,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -1500,19 +1536,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
@@ -1532,19 +1568,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
@@ -1564,19 +1600,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
@@ -1600,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,23 +1647,27 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1635,83 +1675,155 @@
         <v>43791</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <f>9*6-4-4</f>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>43792</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>C2-2</f>
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>43793</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>C3</f>
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>43794</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C4-1-3</f>
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <f>4+2+4+6+2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>43795</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>C5 -6</f>
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>43796</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>C6-2</f>
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>43797</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" ref="C6:C9" si="0">C7</f>
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>43798</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>43799</v>
       </c>
-      <c r="C10">
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1719,7 +1831,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1727,7 +1839,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1735,7 +1847,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1743,7 +1855,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1751,7 +1863,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2094,6 +2206,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E2" xr:uid="{4AB965FB-4706-492C-926F-CC1EA19D0703}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB8604-2036-4EFD-BC5C-404D51754FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C7D2B-B7BB-C848-9B09-6E90947B1032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -285,13 +285,6 @@
     <t>Start Sprint 2</t>
   </si>
   <si>
-    <t>Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login recherche 2 Std</t>
-  </si>
-  <si>
     <t>Sugi - 1.3: Login nach MVP designen - 6 Std</t>
   </si>
   <si>
@@ -299,7 +292,14 @@
   </si>
   <si>
     <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
-Janahan - 1.4: PatientView Design - 4 Std</t>
+Janahan - 1.5: PatientView Design - 4 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login recherche 2 Std                                                      Janahan - 1.5: recherche 2 Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std                    Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std                       </t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -920,17 +920,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -974,7 +974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -985,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -996,7 +996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1007,12 +1007,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1052,20 +1052,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1261,27 +1261,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1349,13 +1349,13 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1638,19 +1638,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1682,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1700,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1733,14 +1733,14 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G5">
         <f>4+2+4+6+2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1773,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1784,14 +1784,14 @@
         <v>43797</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C6:C9" si="0">C7</f>
+        <f t="shared" ref="C8:C9" si="0">C7</f>
         <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB8604-2036-4EFD-BC5C-404D51754FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C9C6E-4FBD-452E-83DF-BA6B695E3A67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,10 @@
   <si>
     <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
 Janahan - 1.4: PatientView Design - 4 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Cleancode 1 Std 
+Sugi - 1.2: Person Classe fertigen 1 Std</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1266,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,8 +1391,11 @@
       <c r="J3">
         <v>3</v>
       </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
       <c r="L3" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1423,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>78</v>
@@ -1639,7 +1646,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1784,11 +1791,14 @@
         <v>43797</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C6:C9" si="0">C7</f>
+        <f t="shared" ref="C8:C9" si="0">C7</f>
         <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C9C6E-4FBD-452E-83DF-BA6B695E3A67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB8604-2036-4EFD-BC5C-404D51754FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -300,10 +300,6 @@
   <si>
     <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
 Janahan - 1.4: PatientView Design - 4 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Cleancode 1 Std 
-Sugi - 1.2: Person Classe fertigen 1 Std</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1262,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,11 +1387,8 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1430,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>78</v>
@@ -1646,7 +1639,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1791,14 +1784,11 @@
         <v>43797</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="0">C7</f>
+        <f t="shared" ref="C6:C9" si="0">C7</f>
         <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C7D2B-B7BB-C848-9B09-6E90947B1032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54981CC-56AE-469F-A0D0-71CF7B694942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,10 @@
   <si>
     <t xml:space="preserve">Sugi - 1.1: Navigationskonzept - 1 Std
 Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std                    Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std                       </t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Cleancode 1 Std 
+Sugi - 1.2: Person Classe fertigen 1 Std</t>
   </si>
 </sst>
 </file>
@@ -428,7 +432,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -920,17 +924,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -941,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -952,7 +956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -963,7 +967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -974,7 +978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -985,7 +989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1007,12 +1011,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1052,20 +1056,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1113,7 +1117,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1137,7 +1141,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1161,7 +1165,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1183,7 +1187,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1265,23 +1269,23 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1636,21 +1640,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1735,12 +1739,8 @@
       <c r="E5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G5">
-        <f>4+2+4+6+2</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1790,8 +1790,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Miletic\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54981CC-56AE-469F-A0D0-71CF7B694942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD72D9-2FAC-4128-829A-08D1A7FA8B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -283,12 +283,6 @@
   </si>
   <si>
     <t>Start Sprint 2</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login nach MVP designen - 6 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login Prozess Quicktest - 2 Std</t>
   </si>
   <si>
     <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
@@ -298,12 +292,24 @@
     <t>Sugi - 1.3: Login recherche 2 Std                                                      Janahan - 1.5: recherche 2 Std</t>
   </si>
   <si>
-    <t xml:space="preserve">Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std                    Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std                       </t>
-  </si>
-  <si>
     <t>Sugi - 1.3: Cleancode 1 Std 
 Sugi - 1.2: Person Classe fertigen 1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login nach MVP designen - 6 Std
+Miletic - 1.6 MedicationView 2 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login Prozess Quicktest - 2 Std
+Miletic - 1.6 MedicationView english + dummy data 2 Std</t>
+  </si>
+  <si>
+    <t>Miletic - 1.6 Vaadin recherche 2 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std                    Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
+Miletic - 1.1 und 1.2 Main View, Grudngerüst - 3 Std</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1359,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>78</v>
@@ -1391,6 +1400,9 @@
       <c r="J3">
         <v>3</v>
       </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1528,8 +1540,14 @@
       <c r="I7" s="5">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
       <c r="L7" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1642,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1669,7 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,8 +1739,11 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1737,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1754,11 +1775,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1772,8 +1793,8 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>84</v>
+      <c r="E7" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1791,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Miletic\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD72D9-2FAC-4128-829A-08D1A7FA8B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A764-69F1-1A47-92DB-F9040682F9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -289,27 +289,36 @@
 Janahan - 1.5: PatientView Design - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - 1.3: Login recherche 2 Std                                                      Janahan - 1.5: recherche 2 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Cleancode 1 Std 
-Sugi - 1.2: Person Classe fertigen 1 Std</t>
+    <t>Sugi - 1.3: Cleancode - 1 Std 
+Sugi - 1.2: Person Classe fertigen - 1 Std
+Alain - 1.5: Patient View neue Suche erstellt - 20 min</t>
+  </si>
+  <si>
+    <t>Sugi - 1.3: Login recherche - 2 Std  
+Janahan - 1.5: recherche - 2 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std 
+ Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
+Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
+Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
+Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
+  </si>
+  <si>
+    <t>Miletic - 1.6: Vaadin recherche - 2 Std</t>
   </si>
   <si>
     <t>Sugi - 1.3: Login nach MVP designen - 6 Std
-Miletic - 1.6 MedicationView 2 Std</t>
+Miletic - 1.6: MedicationView - 2 Std</t>
   </si>
   <si>
     <t>Sugi - 1.3: Login Prozess Quicktest - 2 Std
-Miletic - 1.6 MedicationView english + dummy data 2 Std</t>
-  </si>
-  <si>
-    <t>Miletic - 1.6 Vaadin recherche 2 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std                    Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
-Miletic - 1.1 und 1.2 Main View, Grudngerüst - 3 Std</t>
+Miletic - 1.6: MedicationView english + dummy data - 2 Std
+Alain - 1.3: Login Design und funktionen hinzugefügt - 3 Std
+Alain - 1.8: PatientCase Klasse erstellt - 1 Std
+Alain - 1.7: ReportView erstellen - 3 Std
+Alain - Alle: Alle Klassen aufräumen und kommentieren - 4 Std</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -930,17 +939,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -951,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -962,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -973,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -984,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1017,12 +1026,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1062,20 +1071,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1123,7 +1132,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1147,7 +1156,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1171,7 +1180,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1272,26 +1281,26 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1473,11 +1482,17 @@
       <c r="I5" s="5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1578,11 +1593,17 @@
       <c r="I8" s="5">
         <v>4</v>
       </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
       <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1610,11 +1631,17 @@
       <c r="I9" s="5">
         <v>4</v>
       </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1661,18 +1688,18 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1707,7 +1734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1722,10 +1749,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1740,10 +1767,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1758,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1776,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1794,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1812,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1833,7 +1860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1871,7 +1898,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1879,7 +1906,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1903,7 +1930,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1911,7 +1938,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1943,7 +1970,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1975,7 +2002,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2021,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2029,7 +2056,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2053,7 +2080,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2061,7 +2088,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2077,7 +2104,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2093,7 +2120,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2109,7 +2136,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2117,7 +2144,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2125,7 +2152,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2133,7 +2160,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2141,7 +2168,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2149,7 +2176,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2157,7 +2184,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2165,7 +2192,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2173,7 +2200,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2181,7 +2208,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2189,7 +2216,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2197,7 +2224,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2205,7 +2232,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2213,7 +2240,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2221,7 +2248,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoke\Documents\GitHub\ch.bfh.btx8081.w2019.white\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A764-69F1-1A47-92DB-F9040682F9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE97CEE-9207-4229-9458-0A778BEC3B5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -298,14 +298,6 @@
 Janahan - 1.5: recherche - 2 Std</t>
   </si>
   <si>
-    <t>Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std 
- Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
-Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
-Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
-Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
-  </si>
-  <si>
     <t>Miletic - 1.6: Vaadin recherche - 2 Std</t>
   </si>
   <si>
@@ -319,6 +311,14 @@
 Alain - 1.8: PatientCase Klasse erstellt - 1 Std
 Alain - 1.7: ReportView erstellen - 3 Std
 Alain - Alle: Alle Klassen aufräumen und kommentieren - 4 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std David - 1.1: MainLayout Design - 2 Std
+Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
+Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
+Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
+Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -939,17 +939,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -971,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -982,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -993,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1026,12 +1026,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1071,20 +1071,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1280,27 +1280,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="D6" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1687,19 +1687,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1767,10 +1767,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1785,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1803,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1821,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoke\Documents\GitHub\ch.bfh.btx8081.w2019.white\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE97CEE-9207-4229-9458-0A778BEC3B5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F68A4-2AEB-45A6-A2F9-B56FC2EA9A2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,8 +1742,8 @@
         <v>43792</v>
       </c>
       <c r="C3">
-        <f>C2-2</f>
-        <v>44</v>
+        <f>C2-2-2</f>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1760,8 +1760,8 @@
         <v>43793</v>
       </c>
       <c r="C4">
-        <f>C3</f>
-        <v>44</v>
+        <f>C3-2</f>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1778,8 +1778,8 @@
         <v>43794</v>
       </c>
       <c r="C5">
-        <f>C4-1-3</f>
-        <v>40</v>
+        <f>C4-1-3-2-2-3-4-4</f>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1796,8 +1796,8 @@
         <v>43795</v>
       </c>
       <c r="C6">
-        <f>C5 -6</f>
-        <v>34</v>
+        <f>C5 -6-2</f>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1814,8 +1814,8 @@
         <v>43796</v>
       </c>
       <c r="C7">
-        <f>C6-2</f>
-        <v>32</v>
+        <f>C6-2-2-3-1-3-4</f>
+        <v>-2</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1832,8 +1832,8 @@
         <v>43797</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="0">C7</f>
-        <v>32</v>
+        <f>C7-1-1-1</f>
+        <v>-5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1850,8 +1850,8 @@
         <v>43798</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" ref="C8:C9" si="0">C8</f>
+        <v>-5</v>
       </c>
       <c r="D9">
         <v>0</v>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F68A4-2AEB-45A6-A2F9-B56FC2EA9A2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC820F-AB72-4B36-A10B-37497A8254D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1850,7 @@
         <v>43798</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C8:C9" si="0">C8</f>
+        <f t="shared" ref="C9" si="0">C8</f>
         <v>-5</v>
       </c>
       <c r="D9">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC820F-AB72-4B36-A10B-37497A8254D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD4F4C-B24D-914E-9A32-3EE916B7BA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -319,6 +321,33 @@
 Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
 Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
 Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung von der Medikation</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung von den Patienten</t>
+  </si>
+  <si>
+    <t>Patientendaten genierieren</t>
+  </si>
+  <si>
+    <t>View Anpassen nach Wunsch des Product Owner</t>
+  </si>
+  <si>
+    <t>JPA-Anbindung</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Alle Klassen nach MVP implementieren</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung von Reporten</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung von Description</t>
   </si>
 </sst>
 </file>
@@ -388,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -441,13 +470,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -579,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L11" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L18" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:L18" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
@@ -939,17 +971,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -960,7 +992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -971,7 +1003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -982,7 +1014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -993,7 +1025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1015,7 +1047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1026,12 +1058,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1071,20 +1103,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1132,7 +1164,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1156,7 +1188,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1180,7 +1212,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1202,7 +1234,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1222,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1242,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1262,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1278,29 +1310,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1377,7 +1409,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1416,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1454,7 +1486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1492,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1527,7 +1559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1565,7 +1597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1603,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1641,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1671,6 +1703,103 @@
         <v>12</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="L12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="L13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="L14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="L15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="L16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="L17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1687,19 +1816,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1734,7 +1863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1752,7 +1881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1770,7 +1899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1788,7 +1917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1806,7 +1935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1824,7 +1953,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1842,7 +1971,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1860,7 +1989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1874,7 +2003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1882,7 +2011,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1890,7 +2019,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1898,7 +2027,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1906,7 +2035,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1914,7 +2043,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1922,7 +2051,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1930,7 +2059,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1938,7 +2067,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1946,7 +2075,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1954,7 +2083,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1962,7 +2091,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1970,7 +2099,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1978,7 +2107,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1986,7 +2115,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1994,7 +2123,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2002,7 +2131,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2010,7 +2139,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2018,7 +2147,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2026,7 +2155,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2034,7 +2163,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2048,7 +2177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2056,7 +2185,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2064,7 +2193,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2072,7 +2201,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2080,7 +2209,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2088,7 +2217,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2096,7 +2225,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2104,7 +2233,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2112,7 +2241,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2120,7 +2249,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2128,7 +2257,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2136,7 +2265,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2144,7 +2273,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2152,7 +2281,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2160,7 +2289,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2168,7 +2297,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2176,7 +2305,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2184,7 +2313,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2192,7 +2321,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2200,7 +2329,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2208,7 +2337,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2216,7 +2345,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2224,7 +2353,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2232,7 +2361,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2240,7 +2369,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2248,7 +2377,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD4F4C-B24D-914E-9A32-3EE916B7BA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64843B-E969-094A-9613-67D5639F6AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -348,6 +346,14 @@
   </si>
   <si>
     <t>Datenbankanbindung von Description</t>
+  </si>
+  <si>
+    <t>Alain - : MVP Modelierung  5 Std
+Marko-: MVP Modelierung 5 Std</t>
+  </si>
+  <si>
+    <t>Alain - : MVP Modelierung  9 Std
+Marko-: MVP Modelierung 9 Std</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="138" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1816,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,20 +2025,26 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>43802</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>43803</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64843B-E969-094A-9613-67D5639F6AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBEC8A2-CDF4-4D4F-A6B4-D68F156E5CE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -348,12 +348,18 @@
     <t>Datenbankanbindung von Description</t>
   </si>
   <si>
+    <t>Sugi - : DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
+  </si>
+  <si>
     <t>Alain - : MVP Modelierung  5 Std
-Marko-: MVP Modelierung 5 Std</t>
-  </si>
-  <si>
-    <t>Alain - : MVP Modelierung  9 Std
-Marko-: MVP Modelierung 9 Std</t>
+Marko-: MVP Modelierung 5 Std
+Sugi - : Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
+              Login Prozess mit JPA testen - 9 Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alain - : MVP Modelierung  9 Std
+Marko-: MVP Modelierung 9 Std
+Sugi - : Unterstützung bei MVP, MVP revidieren - </t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -977,17 +983,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1064,12 +1070,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1109,20 +1115,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1170,7 +1176,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1194,7 +1200,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1218,7 +1224,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1240,7 +1246,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1322,23 +1328,23 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -1823,18 +1829,18 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2017,15 +2023,18 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>43801</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2033,10 +2042,10 @@
         <v>43802</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2044,10 +2053,10 @@
         <v>43803</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2253,7 +2262,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2325,7 +2334,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBEC8A2-CDF4-4D4F-A6B4-D68F156E5CE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD515BC-33B5-2044-AAE2-77BDDF43658A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="1600" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -321,33 +323,6 @@
 Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
   </si>
   <si>
-    <t>Datenbankanbindung von der Medikation</t>
-  </si>
-  <si>
-    <t>Datenbankanbindung von den Patienten</t>
-  </si>
-  <si>
-    <t>Patientendaten genierieren</t>
-  </si>
-  <si>
-    <t>View Anpassen nach Wunsch des Product Owner</t>
-  </si>
-  <si>
-    <t>JPA-Anbindung</t>
-  </si>
-  <si>
-    <t>MVP</t>
-  </si>
-  <si>
-    <t>Alle Klassen nach MVP implementieren</t>
-  </si>
-  <si>
-    <t>Datenbankanbindung von Reporten</t>
-  </si>
-  <si>
-    <t>Datenbankanbindung von Description</t>
-  </si>
-  <si>
     <t>Sugi - : DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
   </si>
   <si>
@@ -360,6 +335,30 @@
     <t xml:space="preserve">Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
 Sugi - : Unterstützung bei MVP, MVP revidieren - </t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Medikation</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Mediplan</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen Prescription</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen Patient</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Report</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Diagnose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundgerüst </t>
+  </si>
+  <si>
+    <t>IDE Setup/Persistierung/View erstellen  Login</t>
   </si>
 </sst>
 </file>
@@ -429,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -482,16 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -623,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L18" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L18" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L19" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:L19" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
@@ -983,17 +979,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1070,12 +1066,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1115,20 +1111,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1176,7 +1172,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1200,7 +1196,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1224,7 +1220,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1246,7 +1242,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1266,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1286,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1322,29 +1318,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="138" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="108" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1421,7 +1416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1536,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1609,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1685,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1718,102 +1713,175 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="L13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="L15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="D16" s="10"/>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.9</v>
+      </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>94</v>
+      <c r="C17" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="10"/>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>28</v>
+      </c>
+      <c r="K17">
+        <v>28</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,19 +1896,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="315" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1875,7 +1943,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1893,7 +1961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1911,7 +1979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1929,7 +1997,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1947,7 +2015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1965,7 +2033,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1983,7 +2051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2001,7 +2069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2015,7 +2083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2023,7 +2091,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2031,10 +2099,10 @@
         <v>43801</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2042,10 +2110,10 @@
         <v>43802</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2053,10 +2121,10 @@
         <v>43803</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2064,7 +2132,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2072,7 +2140,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2080,7 +2148,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2088,7 +2156,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2096,7 +2164,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2104,7 +2172,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2112,7 +2180,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2120,7 +2188,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2128,7 +2196,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2136,7 +2204,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2144,7 +2212,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2152,7 +2220,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2160,7 +2228,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2168,7 +2236,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2176,7 +2244,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2184,7 +2252,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2198,7 +2266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2206,7 +2274,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2214,7 +2282,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2222,7 +2290,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2230,7 +2298,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2238,7 +2306,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2246,7 +2314,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2254,7 +2322,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2262,7 +2330,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2270,7 +2338,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2278,7 +2346,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2286,7 +2354,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2294,7 +2362,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2302,7 +2370,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2310,7 +2378,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2318,7 +2386,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2326,7 +2394,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2334,7 +2402,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2342,7 +2410,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2350,7 +2418,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2358,7 +2426,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2366,7 +2434,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2374,7 +2442,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2382,7 +2450,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2390,7 +2458,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2398,7 +2466,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD515BC-33B5-2044-AAE2-77BDDF43658A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCFAE5-D982-4AAD-A731-1A71A000AC57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1600" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -487,7 +485,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -979,17 +977,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1066,12 +1064,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1111,20 +1109,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1172,7 +1170,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1196,7 +1194,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1220,7 +1218,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1242,7 +1240,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1320,26 +1318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="108" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1455,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1680,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1713,13 +1711,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
       <c r="I11">
         <v>8</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
         <v>100</v>
@@ -1879,9 +1880,13 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
+      <c r="I19">
+        <f>SUBTOTAL(109,I2:I18)</f>
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,15 +1905,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="66.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1925,7 +1930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1943,7 +1948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1961,7 +1966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1997,7 +2002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2015,7 +2020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2083,7 +2088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2164,7 +2169,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCFAE5-D982-4AAD-A731-1A71A000AC57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6331FBD-04D5-453F-A924-94BB238646DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>IDE Setup/Persistierung/View erstellen  Login</t>
+  </si>
+  <si>
+    <t>nippa1, milem2</t>
   </si>
 </sst>
 </file>
@@ -977,17 +980,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.86328125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.86328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1064,12 +1067,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1105,24 +1108,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1240,7 +1243,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1318,26 +1321,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A11" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.9</v>
       </c>
@@ -1845,10 +1847,10 @@
       </c>
       <c r="D17" s="10"/>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I17">
         <v>28</v>
@@ -1863,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
         <v>100</v>
@@ -1880,7 +1882,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
       <c r="I19">
@@ -1901,19 +1903,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="315" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="66.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2225,7 +2227,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2455,7 +2457,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6331FBD-04D5-453F-A924-94BB238646DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F494E-753E-4FDB-8FF0-24BC50CEFE4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -330,36 +330,45 @@
               Login Prozess mit JPA testen - 9 Std</t>
   </si>
   <si>
-    <t xml:space="preserve">Alain - : MVP Modelierung  9 Std
+    <t>Persistierung/View erstellen  Medikation</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Mediplan</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen Prescription</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen Patient</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Report</t>
+  </si>
+  <si>
+    <t>Persistierung/View erstellen  Diagnose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundgerüst </t>
+  </si>
+  <si>
+    <t>IDE Setup/Persistierung/View erstellen  Login</t>
+  </si>
+  <si>
+    <t>nippa1, milem2</t>
+  </si>
+  <si>
+    <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
-Sugi - : Unterstützung bei MVP, MVP revidieren - </t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Medikation</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Mediplan</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Prescription</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Patient</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Report</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundgerüst </t>
-  </si>
-  <si>
-    <t>IDE Setup/Persistierung/View erstellen  Login</t>
-  </si>
-  <si>
-    <t>nippa1, milem2</t>
+Sugi - : Unterstützung bei MVP, MVP revidieren - 1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - : SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
+IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std</t>
+  </si>
+  <si>
+    <t>Sugi - : LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
+beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
   </si>
 </sst>
 </file>
@@ -980,17 +989,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.86328125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1067,12 +1076,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1108,24 +1117,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1197,7 +1206,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1221,7 +1230,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1243,7 +1252,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1325,21 +1334,21 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1713,12 +1722,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1730,12 +1739,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" t="s">
@@ -1751,12 +1760,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" t="s">
@@ -1772,12 +1781,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" t="s">
@@ -1793,12 +1802,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" t="s">
@@ -1814,12 +1823,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="10"/>
       <c r="F16" t="s">
@@ -1835,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9</v>
       </c>
@@ -1843,14 +1852,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="10"/>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>28</v>
@@ -1865,10 +1874,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="10"/>
       <c r="F18" t="s">
@@ -1882,7 +1891,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
       <c r="I19">
@@ -1903,19 +1912,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" customWidth="1"/>
-    <col min="5" max="5" width="66.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2128,10 +2137,10 @@
         <v>43803</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2139,15 +2148,18 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>43805</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2155,15 +2167,18 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="3">
         <v>43807</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2171,7 +2186,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2179,7 +2194,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2211,7 +2226,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2243,7 +2258,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2251,7 +2266,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2281,7 +2296,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2313,7 +2328,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2337,7 +2352,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2401,7 +2416,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2409,7 +2424,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2417,7 +2432,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F494E-753E-4FDB-8FF0-24BC50CEFE4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6829CC6-B68B-4877-BB80-ED61B7EF1F75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -186,15 +186,9 @@
     <t>Der Facharzt kann seine Patiententermine auf dem Termin-View strukturiert sehen. Eintragen von zukünftigen Terminen und verwalten von eingetragenen Termine ist möglich. Die Termine werden den Patienten zugeordnet</t>
   </si>
   <si>
-    <t>Der Arzt kann Einstellungen vornehmen, um die Benutzeroberfläche anzupassen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der Facharzt kann die Patientenstammdaten und die Patientenberichte  auf dem Patienten-View strukturiert sehen. </t>
   </si>
   <si>
-    <t>Der Facharzt kann die Medizinverordnung eines Patienten im Medikamenten-View strukturiert sehen. Der Facharzt kann neue Medizinverordnungeng einem Patienten zuordnen und abfragen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Um die Patientendaten persistent zu machen, wird eine relationale Datenbank verwendet. </t>
   </si>
   <si>
@@ -274,9 +268,6 @@
   </si>
   <si>
     <t>Remaining Ressources [days]</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Comments</t>
@@ -321,61 +312,113 @@
 Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - : DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
+    <t xml:space="preserve">Grundgerüst </t>
+  </si>
+  <si>
+    <t>nippa1, milem2</t>
+  </si>
+  <si>
+    <t>Der Facharzt kann die Medizinverordnung eines Patienten im Medikamenten-View strukturiert sehen. Der Facharzt kann neue Medizinverordnungen einem Patienten zuordnen und abfragen.</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medikation: Persistierung/View  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediplan: Persistierung/View  </t>
+  </si>
+  <si>
+    <t>Prescription: Persistierung/View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient: Persistierung/View </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: Persistierung/View  </t>
+  </si>
+  <si>
+    <t>Diagnose: Persistierung/View</t>
+  </si>
+  <si>
+    <t>IDE Setup</t>
+  </si>
+  <si>
+    <t>IDE für JPA vorbereiten</t>
+  </si>
+  <si>
+    <t>Login: 
+Persistierung/View</t>
+  </si>
+  <si>
+    <t>Doctor Klasse Annotation und als Vorlage zur Verfügung stellen</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Der Arzt kann Einstellungen vornehmen, um die Benutzeroberfläche anzupassen oder Passwort zu verändern</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  5 Std
 Marko-: MVP Modelierung 5 Std
-Sugi - : Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
+Sugi - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
               Login Prozess mit JPA testen - 9 Std</t>
   </si>
   <si>
-    <t>Persistierung/View erstellen  Medikation</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Mediplan</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Prescription</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Patient</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Report</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Diagnose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundgerüst </t>
-  </si>
-  <si>
-    <t>IDE Setup/Persistierung/View erstellen  Login</t>
-  </si>
-  <si>
-    <t>nippa1, milem2</t>
+    <t>Task 06</t>
+  </si>
+  <si>
+    <t>Klassenmodell</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model / View / Presenter</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Klassendiagramm aktualisieren, ER-Diagramm überprüfen</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
-Sugi - : Unterstützung bei MVP, MVP revidieren - 1 Std</t>
-  </si>
-  <si>
-    <t>Sugi - : SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
 Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
 IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - : LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
+    <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
 beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std</t>
+  </si>
+  <si>
+    <t>Model / Presenter / Database</t>
+  </si>
+  <si>
+    <t>Dummydaten</t>
+  </si>
+  <si>
+    <t>Datenbank mit Dummydaten befüllen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +454,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +490,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,10 +510,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -487,45 +564,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -556,10 +681,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -612,49 +762,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated"/>
+    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L19" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:L21" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority "/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1115,22 +1265,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1150,7 +1300,7 @@
       <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1176,32 +1326,33 @@
       <c r="E2" s="4">
         <v>42</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="25">
         <v>20</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
+      <c r="F3" s="23"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1214,18 +1365,20 @@
         <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4"/>
+        <v>84</v>
+      </c>
+      <c r="F4" s="5">
+        <v>94</v>
+      </c>
       <c r="G4"/>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -1268,31 +1421,39 @@
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>17</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21">
+        <v>25</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1300,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1310,11 +1471,23 @@
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>6*14</f>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>6*14</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1328,24 +1501,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1361,32 +1535,32 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1394,19 +1568,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1415,17 +1589,17 @@
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1433,19 +1607,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1454,17 +1628,17 @@
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1472,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1492,17 +1666,17 @@
       <c r="I4" s="5">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1510,19 +1684,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1530,17 +1704,17 @@
       <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1548,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
@@ -1568,14 +1742,14 @@
       <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1583,19 +1757,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -1603,17 +1777,17 @@
       <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1621,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>29</v>
@@ -1641,17 +1815,17 @@
       <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1659,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
@@ -1679,10 +1853,10 @@
       <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5">
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -1697,19 +1871,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
@@ -1722,181 +1896,354 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
+      <c r="C11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2.21</v>
+      </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
+        <v>91</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5">
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13">
-        <v>8</v>
+      <c r="G13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14">
+        <v>92</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
         <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2.4</v>
+      </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
+        <v>93</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5">
         <v>8</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2.5</v>
+      </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16">
+        <v>94</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
         <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.9</v>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2.6</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
-      </c>
-      <c r="K17">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="A18" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
       <c r="C18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="5">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5">
+        <v>28</v>
+      </c>
+      <c r="K19" s="5">
+        <v>28</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
+        <v>6</v>
+      </c>
+      <c r="K20" s="5">
+        <f>5+3+4</f>
+        <v>12</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" s="28">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="D21" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="I19">
-        <f>SUBTOTAL(109,I2:I18)</f>
-        <v>138</v>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="5">
+        <f>6+1+10</f>
+        <v>17</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1910,9 +2257,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1924,7 +2271,7 @@
     <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1935,13 +2282,13 @@
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1949,17 +2296,17 @@
         <v>43791</v>
       </c>
       <c r="C2">
-        <f>9*6-4-4</f>
-        <v>46</v>
+        <f>(6*(9+14+5))-4-4</f>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1968,16 +2315,16 @@
       </c>
       <c r="C3">
         <f>C2-2-2</f>
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1986,16 +2333,16 @@
       </c>
       <c r="C4">
         <f>C3-2</f>
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2004,16 +2351,20 @@
       </c>
       <c r="C5">
         <f>C4-1-3-2-2-3-4-4</f>
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <f>6*(9+14+5)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2022,16 +2373,16 @@
       </c>
       <c r="C6">
         <f>C5 -6-2</f>
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2040,16 +2391,16 @@
       </c>
       <c r="C7">
         <f>C6-2-2-3-1-3-4</f>
-        <v>-2</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2058,16 +2409,16 @@
       </c>
       <c r="C8">
         <f>C7-1-1-1</f>
-        <v>-5</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2075,88 +2426,131 @@
         <v>43798</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="0">C8</f>
-        <v>-5</v>
+        <f t="shared" ref="C9:C57" si="0">C8</f>
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>43799</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>43800</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>43801</v>
       </c>
+      <c r="C12">
+        <f>C11</f>
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
       <c r="E12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>43802</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>43803</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>43804</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>43805</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,6 +2560,13 @@
       <c r="B17" s="3">
         <v>43806</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2174,8 +2575,15 @@
       <c r="B18" s="3">
         <v>43807</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,6 +2593,16 @@
       <c r="B19" s="3">
         <v>43808</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2193,6 +2611,13 @@
       <c r="B20" s="3">
         <v>43809</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2201,6 +2626,13 @@
       <c r="B21" s="3">
         <v>43810</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2209,6 +2641,13 @@
       <c r="B22" s="3">
         <v>43811</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2217,6 +2656,13 @@
       <c r="B23" s="3">
         <v>43812</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2225,6 +2671,13 @@
       <c r="B24" s="3">
         <v>43813</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2233,6 +2686,13 @@
       <c r="B25" s="3">
         <v>43814</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2241,6 +2701,13 @@
       <c r="B26" s="3">
         <v>43815</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2249,6 +2716,13 @@
       <c r="B27" s="3">
         <v>43816</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2257,6 +2731,13 @@
       <c r="B28" s="3">
         <v>43817</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2265,6 +2746,13 @@
       <c r="B29" s="3">
         <v>43818</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2273,6 +2761,13 @@
       <c r="B30" s="3">
         <v>43819</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2282,10 +2777,11 @@
         <v>43820</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,205 +2791,387 @@
       <c r="B32" s="3">
         <v>43821</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" s="3">
         <v>43822</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" s="3">
         <v>43823</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="3">
         <v>43824</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" s="3">
         <v>43825</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" s="3">
         <v>43826</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" s="3">
         <v>43827</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" s="3">
         <v>43828</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="3">
         <v>43829</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" s="3">
         <v>43830</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" s="3">
         <v>43831</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" s="3">
         <v>43832</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" s="3">
         <v>43833</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>43834</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" s="3">
         <v>43835</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" s="3">
         <v>43836</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" s="3">
         <v>43837</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49" s="3">
         <v>43838</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50" s="3">
         <v>43839</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" s="3">
         <v>43840</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" s="3">
         <v>43841</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="3">
         <v>43842</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="3">
         <v>43843</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="3">
         <v>43844</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="3">
         <v>43845</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="3">
         <v>43846</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F494E-753E-4FDB-8FF0-24BC50CEFE4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F590D25-BA5C-4A94-9D43-35D8D7CFA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -348,13 +348,7 @@
     <t>Persistierung/View erstellen  Diagnose</t>
   </si>
   <si>
-    <t xml:space="preserve">Grundgerüst </t>
-  </si>
-  <si>
     <t>IDE Setup/Persistierung/View erstellen  Login</t>
-  </si>
-  <si>
-    <t>nippa1, milem2</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  9 Std
@@ -369,6 +363,18 @@
   <si>
     <t>Sugi - : LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
 beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
+  </si>
+  <si>
+    <t>Grunderüst 1</t>
+  </si>
+  <si>
+    <t>Grundgerüst 2</t>
+  </si>
+  <si>
+    <t>Aufbau der Klassen gemäss MVP</t>
+  </si>
+  <si>
+    <t>Model, View, Presenter</t>
   </si>
 </sst>
 </file>
@@ -629,8 +635,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L19" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L20" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:L20" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
@@ -989,17 +995,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.86328125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.86328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1076,12 +1082,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1121,20 +1127,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1182,7 +1188,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1206,7 +1212,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1252,7 +1258,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K14" t="s">
         <v>31</v>
       </c>
@@ -1328,27 +1334,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -1844,58 +1850,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.9</v>
-      </c>
+    <row r="17" spans="2:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
-      </c>
-      <c r="K17">
-        <v>28</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="F18" t="s">
+      <c r="D19" s="10"/>
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
       <c r="I19">
-        <f>SUBTOTAL(109,I2:I18)</f>
+        <v>8</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="I20">
+        <f>SUBTOTAL(109,I2:I19)</f>
         <v>138</v>
       </c>
     </row>
@@ -1912,19 +1958,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="78" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="92.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1959,7 +2005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1977,7 +2023,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1995,7 +2041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2013,7 +2059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2031,7 +2077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2049,7 +2095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2067,7 +2113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2085,7 +2131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2099,7 +2145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2107,7 +2153,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2118,7 +2164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2129,7 +2175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2137,10 +2183,10 @@
         <v>43803</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2148,7 +2194,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2156,10 +2202,10 @@
         <v>43805</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2167,7 +2213,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2175,10 +2221,10 @@
         <v>43807</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2186,7 +2232,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2194,7 +2240,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2202,7 +2248,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2210,7 +2256,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2218,7 +2264,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2226,7 +2272,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2234,7 +2280,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2242,7 +2288,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2250,7 +2296,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2258,7 +2304,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2266,7 +2312,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2274,7 +2320,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2288,7 +2334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2296,7 +2342,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2304,7 +2350,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2312,7 +2358,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2320,7 +2366,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2328,7 +2374,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2336,7 +2382,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2344,7 +2390,7 @@
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2352,7 +2398,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2360,7 +2406,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2368,7 +2414,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2376,7 +2422,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2384,7 +2430,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2392,7 +2438,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2400,7 +2446,7 @@
         <v>43834</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2408,7 +2454,7 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2416,7 +2462,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2424,7 +2470,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2432,7 +2478,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2440,7 +2486,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2448,7 +2494,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2456,7 +2502,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2464,7 +2510,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2472,7 +2518,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2480,7 +2526,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2488,7 +2534,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milet\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F590D25-BA5C-4A94-9D43-35D8D7CFA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6829CC6-B68B-4877-BB80-ED61B7EF1F75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -186,15 +186,9 @@
     <t>Der Facharzt kann seine Patiententermine auf dem Termin-View strukturiert sehen. Eintragen von zukünftigen Terminen und verwalten von eingetragenen Termine ist möglich. Die Termine werden den Patienten zugeordnet</t>
   </si>
   <si>
-    <t>Der Arzt kann Einstellungen vornehmen, um die Benutzeroberfläche anzupassen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der Facharzt kann die Patientenstammdaten und die Patientenberichte  auf dem Patienten-View strukturiert sehen. </t>
   </si>
   <si>
-    <t>Der Facharzt kann die Medizinverordnung eines Patienten im Medikamenten-View strukturiert sehen. Der Facharzt kann neue Medizinverordnungeng einem Patienten zuordnen und abfragen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Um die Patientendaten persistent zu machen, wird eine relationale Datenbank verwendet. </t>
   </si>
   <si>
@@ -274,9 +268,6 @@
   </si>
   <si>
     <t>Remaining Ressources [days]</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Comments</t>
@@ -321,67 +312,113 @@
 Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - : DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
+    <t xml:space="preserve">Grundgerüst </t>
+  </si>
+  <si>
+    <t>nippa1, milem2</t>
+  </si>
+  <si>
+    <t>Der Facharzt kann die Medizinverordnung eines Patienten im Medikamenten-View strukturiert sehen. Der Facharzt kann neue Medizinverordnungen einem Patienten zuordnen und abfragen.</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medikation: Persistierung/View  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediplan: Persistierung/View  </t>
+  </si>
+  <si>
+    <t>Prescription: Persistierung/View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient: Persistierung/View </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: Persistierung/View  </t>
+  </si>
+  <si>
+    <t>Diagnose: Persistierung/View</t>
+  </si>
+  <si>
+    <t>IDE Setup</t>
+  </si>
+  <si>
+    <t>IDE für JPA vorbereiten</t>
+  </si>
+  <si>
+    <t>Login: 
+Persistierung/View</t>
+  </si>
+  <si>
+    <t>Doctor Klasse Annotation und als Vorlage zur Verfügung stellen</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Der Arzt kann Einstellungen vornehmen, um die Benutzeroberfläche anzupassen oder Passwort zu verändern</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  5 Std
 Marko-: MVP Modelierung 5 Std
-Sugi - : Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
+Sugi - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
               Login Prozess mit JPA testen - 9 Std</t>
   </si>
   <si>
-    <t>Persistierung/View erstellen  Medikation</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Mediplan</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Prescription</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen Patient</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Report</t>
-  </si>
-  <si>
-    <t>Persistierung/View erstellen  Diagnose</t>
-  </si>
-  <si>
-    <t>IDE Setup/Persistierung/View erstellen  Login</t>
+    <t>Task 06</t>
+  </si>
+  <si>
+    <t>Klassenmodell</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model / View / Presenter</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Klassendiagramm aktualisieren, ER-Diagramm überprüfen</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
-Sugi - : Unterstützung bei MVP, MVP revidieren - 1 Std</t>
-  </si>
-  <si>
-    <t>Sugi - : SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
 Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
 IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - : LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
+    <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
 beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
   </si>
   <si>
-    <t>Grunderüst 1</t>
-  </si>
-  <si>
-    <t>Grundgerüst 2</t>
-  </si>
-  <si>
-    <t>Aufbau der Klassen gemäss MVP</t>
-  </si>
-  <si>
-    <t>Model, View, Presenter</t>
+    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std</t>
+  </si>
+  <si>
+    <t>Model / Presenter / Database</t>
+  </si>
+  <si>
+    <t>Dummydaten</t>
+  </si>
+  <si>
+    <t>Datenbank mit Dummydaten befüllen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +454,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +490,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,10 +510,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -493,45 +564,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -562,10 +681,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -618,49 +762,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated"/>
+    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L20" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L20" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:L21" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority "/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -995,17 +1139,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.86328125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1082,12 +1226,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1099,7 +1243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="24.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1121,26 +1265,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1300,7 @@
       <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1166,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1182,37 +1326,38 @@
       <c r="E2" s="4">
         <v>42</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="25">
         <v>20</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
+      <c r="F3" s="23"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1220,23 +1365,25 @@
         <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4"/>
+        <v>84</v>
+      </c>
+      <c r="F4" s="5">
+        <v>94</v>
+      </c>
       <c r="G4"/>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1258,7 +1405,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1274,31 +1421,39 @@
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>17</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21">
+        <v>25</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1306,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1318,9 +1473,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>6*14</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>6*14</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1334,27 +1501,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1367,32 +1535,32 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1400,19 +1568,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1421,17 +1589,17 @@
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1439,19 +1607,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1460,17 +1628,17 @@
         <f>6*1</f>
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1478,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1498,17 +1666,17 @@
       <c r="I4" s="5">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1516,19 +1684,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1536,17 +1704,17 @@
       <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1554,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
@@ -1574,14 +1742,14 @@
       <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1589,19 +1757,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -1609,17 +1777,17 @@
       <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1627,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>29</v>
@@ -1647,17 +1815,17 @@
       <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1665,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
@@ -1685,17 +1853,17 @@
       <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5">
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1703,19 +1871,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
@@ -1728,221 +1896,354 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
+      <c r="C11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2.21</v>
+      </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
+        <v>91</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5">
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13">
-        <v>8</v>
+      <c r="G13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14">
+        <v>92</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
         <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2.4</v>
+      </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
+        <v>93</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5">
         <v>8</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2.5</v>
+      </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16">
+        <v>94</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
         <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2.6</v>
+      </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="5">
         <v>5</v>
-      </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>14</v>
-      </c>
-      <c r="K17">
-        <v>14</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2.7</v>
+      </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>14</v>
-      </c>
-      <c r="K18">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
       <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="5">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5">
+        <v>28</v>
+      </c>
+      <c r="K19" s="5">
+        <v>28</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="I20">
-        <f>SUBTOTAL(109,I2:I19)</f>
-        <v>138</v>
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
+        <v>6</v>
+      </c>
+      <c r="K20" s="5">
+        <f>5+3+4</f>
+        <v>12</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" s="28">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="5">
+        <f>6+1+10</f>
+        <v>17</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1956,21 +2257,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" customWidth="1"/>
-    <col min="5" max="5" width="92.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1981,13 +2282,13 @@
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1995,17 +2296,17 @@
         <v>43791</v>
       </c>
       <c r="C2">
-        <f>9*6-4-4</f>
-        <v>46</v>
+        <f>(6*(9+14+5))-4-4</f>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2014,16 +2315,16 @@
       </c>
       <c r="C3">
         <f>C2-2-2</f>
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2032,16 +2333,16 @@
       </c>
       <c r="C4">
         <f>C3-2</f>
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2050,16 +2351,20 @@
       </c>
       <c r="C5">
         <f>C4-1-3-2-2-3-4-4</f>
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <f>6*(9+14+5)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2068,16 +2373,16 @@
       </c>
       <c r="C6">
         <f>C5 -6-2</f>
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2086,16 +2391,16 @@
       </c>
       <c r="C7">
         <f>C6-2-2-3-1-3-4</f>
-        <v>-2</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2104,16 +2409,16 @@
       </c>
       <c r="C8">
         <f>C7-1-1-1</f>
-        <v>-5</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2121,206 +2426,350 @@
         <v>43798</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="0">C8</f>
-        <v>-5</v>
+        <f t="shared" ref="C9:C57" si="0">C8</f>
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>43799</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>43800</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>43801</v>
       </c>
+      <c r="C12">
+        <f>C11</f>
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
       <c r="E12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>43802</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>43803</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>43804</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>43805</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="3">
         <v>43806</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="3">
         <v>43807</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" s="3">
         <v>43808</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" s="3">
         <v>43809</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" s="3">
         <v>43810</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="3">
         <v>43811</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" s="3">
         <v>43812</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" s="3">
         <v>43813</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" s="3">
         <v>43814</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" s="3">
         <v>43815</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" s="3">
         <v>43816</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="3">
         <v>43817</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="3">
         <v>43818</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="3">
         <v>43819</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2328,218 +2777,401 @@
         <v>43820</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" s="3">
         <v>43821</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" s="3">
         <v>43822</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" s="3">
         <v>43823</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="3">
         <v>43824</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" s="3">
         <v>43825</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" s="3">
         <v>43826</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" s="3">
         <v>43827</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" s="3">
         <v>43828</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="3">
         <v>43829</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" s="3">
         <v>43830</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" s="3">
         <v>43831</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" s="3">
         <v>43832</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" s="3">
         <v>43833</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>43834</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" s="3">
         <v>43835</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" s="3">
         <v>43836</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" s="3">
         <v>43837</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49" s="3">
         <v>43838</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50" s="3">
         <v>43839</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" s="3">
         <v>43840</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" s="3">
         <v>43841</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="3">
         <v>43842</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="3">
         <v>43843</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="3">
         <v>43844</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="3">
         <v>43845</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="3">
         <v>43846</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6829CC6-B68B-4877-BB80-ED61B7EF1F75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A756D7-AAB8-4F76-A4C0-EDC0753B8090}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Datenbank mit Dummydaten befüllen</t>
+  </si>
+  <si>
+    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std</t>
   </si>
 </sst>
 </file>
@@ -614,13 +617,32 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -647,7 +669,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -681,35 +706,13 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -769,10 +772,10 @@
     <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -784,27 +787,27 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1504,7 +1507,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,6 +2107,12 @@
       <c r="I17" s="5">
         <v>5</v>
       </c>
+      <c r="J17" s="5">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2269,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,6 +2642,9 @@
       <c r="D21">
         <v>36</v>
       </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3177,7 +3189,7 @@
   </sheetData>
   <autoFilter ref="E1:E2" xr:uid="{4AB965FB-4706-492C-926F-CC1EA19D0703}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A756D7-AAB8-4F76-A4C0-EDC0753B8090}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF288A-73BA-E844-A6A4-79F3473CA2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -414,7 +416,8 @@
     <t>Datenbank mit Dummydaten befüllen</t>
   </si>
   <si>
-    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std</t>
+    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
+Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1142,17 +1145,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1229,12 +1232,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1274,20 +1277,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1360,7 +1363,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1386,7 +1389,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1476,18 +1479,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1510,22 +1513,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2268,19 +2271,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="179" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2642,11 +2645,11 @@
       <c r="D21">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF288A-73BA-E844-A6A4-79F3473CA2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BDE2C-6A5C-4F8D-8D2C-B3231EE1B378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -418,6 +416,9 @@
   <si>
     <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
 Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
   </si>
 </sst>
 </file>
@@ -620,7 +621,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1145,17 +1146,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1232,12 +1233,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1277,20 +1278,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1339,7 +1340,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1363,7 +1364,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1389,7 +1390,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1411,7 +1412,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1479,18 +1480,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1513,22 +1514,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2271,19 +2272,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="92.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2663,8 +2664,11 @@
       <c r="D22">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2919,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BDE2C-6A5C-4F8D-8D2C-B3231EE1B378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BB93F-6D74-8C41-B3F6-33C577DF7DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -419,6 +421,10 @@
   </si>
   <si>
     <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
+  </si>
+  <si>
+    <t>Janahan - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std
+Sugi - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1146,17 +1152,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1233,12 +1239,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1278,20 +1284,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1340,7 +1346,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1364,7 +1370,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1412,7 +1418,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1480,18 +1486,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1514,22 +1520,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2272,19 +2278,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2682,8 +2688,11 @@
       <c r="D23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2743,7 +2752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2788,7 +2797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2938,7 +2947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2998,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3058,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3178,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BB93F-6D74-8C41-B3F6-33C577DF7DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F35FF9-D2C2-9E4C-82B0-CAB159BA6D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,41 +390,43 @@
     <t>Klassendiagramm aktualisieren, ER-Diagramm überprüfen</t>
   </si>
   <si>
+    <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
+beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std</t>
+  </si>
+  <si>
+    <t>Model / Presenter / Database</t>
+  </si>
+  <si>
+    <t>Dummydaten</t>
+  </si>
+  <si>
+    <t>Datenbank mit Dummydaten befüllen</t>
+  </si>
+  <si>
+    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
+Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
+  </si>
+  <si>
+    <t>Janahan - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std
+Sugi - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
+IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std
+Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 4 Std</t>
+  </si>
+  <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
-Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
-Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
-IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
-beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std</t>
-  </si>
-  <si>
-    <t>Model / Presenter / Database</t>
-  </si>
-  <si>
-    <t>Dummydaten</t>
-  </si>
-  <si>
-    <t>Datenbank mit Dummydaten befüllen</t>
-  </si>
-  <si>
-    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
-Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
-  </si>
-  <si>
-    <t>Janahan - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std
-Sugi - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
+Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
+ Janahan ER-Diagramm kontrollieren - 1 Std</t>
   </si>
 </sst>
 </file>
@@ -1980,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>107</v>
@@ -2240,7 +2242,7 @@
         <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>71</v>
@@ -2278,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2523,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2554,7 +2556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,7 +2604,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2653,7 +2655,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,7 +2673,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2689,7 +2691,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F35FF9-D2C2-9E4C-82B0-CAB159BA6D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893350A-1ECE-3B47-88CC-281AAE1C8332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -400,12 +400,6 @@
     <t>Model / Presenter / Database</t>
   </si>
   <si>
-    <t>Dummydaten</t>
-  </si>
-  <si>
-    <t>Datenbank mit Dummydaten befüllen</t>
-  </si>
-  <si>
     <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
 Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
   </si>
@@ -427,6 +421,12 @@
 Marko-: MVP Modelierung 9 Std
 Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
  Janahan ER-Diagramm kontrollieren - 1 Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummydaten </t>
+  </si>
+  <si>
+    <t>Datenbank mit Patient und Docktor  befüllen</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1982,16 +1982,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>71</v>
@@ -2001,6 +2001,9 @@
       </c>
       <c r="I13" s="5">
         <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>8</v>
@@ -2280,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="179" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="179" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2571,7 +2574,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2655,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2673,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2691,7 +2694,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893350A-1ECE-3B47-88CC-281AAE1C8332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C7F67-0D25-9641-86FD-AC6E1DB438AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Datenbank mit Patient und Docktor  befüllen</t>
+  </si>
+  <si>
+    <t>Die Klasse Patient annotieren</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2082,9 @@
       <c r="C16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>107</v>
       </c>
@@ -2118,6 +2123,9 @@
       </c>
       <c r="G17" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I17" s="5">
         <v>5</v>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C7F67-0D25-9641-86FD-AC6E1DB438AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C7B21-A976-6443-8808-B9EAA6E20C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -430,6 +430,10 @@
   </si>
   <si>
     <t>Die Klasse Patient annotieren</t>
+  </si>
+  <si>
+    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
+Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2291,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2765,7 +2769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2778,6 +2782,9 @@
       </c>
       <c r="D28">
         <v>29</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C7B21-A976-6443-8808-B9EAA6E20C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78927AFC-C858-4D4B-B833-220DF51617C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -434,6 +432,9 @@
   <si>
     <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
 Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.</t>
+  </si>
+  <si>
+    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.</t>
   </si>
 </sst>
 </file>
@@ -636,7 +637,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -786,6 +787,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="20"/>
@@ -1161,17 +1165,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1248,12 +1252,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1290,23 +1294,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1355,57 +1359,57 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="25" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25">
-        <v>20</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
-        <v>90</v>
+      <c r="E3" s="4">
+        <v>84</v>
+      </c>
+      <c r="F3" s="5">
+        <v>94</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>84</v>
-      </c>
-      <c r="F4" s="5">
-        <v>94</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="5" t="s">
-        <v>76</v>
+      <c r="E4" s="25">
+        <v>20</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1427,7 +1431,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1495,18 +1499,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1529,22 +1533,22 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2295,19 +2299,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="92.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2801,8 +2805,11 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2847,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2862,7 +2869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2907,7 +2914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2922,7 +2929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2967,7 +2974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2982,7 +2989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3087,7 +3094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3102,7 +3109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3117,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3147,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3162,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3207,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78927AFC-C858-4D4B-B833-220DF51617C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33718A0-5B19-4EC5-BB13-C6D1B8D6BE17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
-  </si>
-  <si>
-    <t>Remaining Effort</t>
   </si>
   <si>
     <t>Time of Record</t>
@@ -415,26 +412,37 @@
 Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 4 Std</t>
   </si>
   <si>
+    <t xml:space="preserve">Dummydaten </t>
+  </si>
+  <si>
+    <t>Datenbank mit Patient und Docktor  befüllen</t>
+  </si>
+  <si>
+    <t>Die Klasse Patient annotieren</t>
+  </si>
+  <si>
+    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
+Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.</t>
+  </si>
+  <si>
+    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Sugi - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Jana - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Alain - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Dave - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Viktor - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std </t>
+  </si>
+  <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
 Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
- Janahan ER-Diagramm kontrollieren - 1 Std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummydaten </t>
-  </si>
-  <si>
-    <t>Datenbank mit Patient und Docktor  befüllen</t>
-  </si>
-  <si>
-    <t>Die Klasse Patient annotieren</t>
-  </si>
-  <si>
-    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
-Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.</t>
-  </si>
-  <si>
-    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.</t>
+Janahan ER-Diagramm kontrollieren - 1 Std</t>
+  </si>
+  <si>
+    <t>Remaining Effort [h]</t>
   </si>
 </sst>
 </file>
@@ -831,7 +839,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
     <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
+    <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort [h]"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1183,73 +1191,73 @@
         <v>17</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,26 +1267,26 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1341,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1354,7 +1362,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1364,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1380,7 +1388,7 @@
       </c>
       <c r="G3"/>
       <c r="H3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1390,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>5</v>
@@ -1404,7 +1412,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="26"/>
       <c r="H4" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -1414,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1436,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -1454,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1462,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>5</v>
@@ -1484,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1507,7 +1515,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
@@ -1594,19 +1602,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1622,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1633,19 +1641,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1661,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1672,19 +1680,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -1699,7 +1707,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1710,19 +1718,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1748,19 +1756,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
@@ -1772,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1783,19 +1791,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -1810,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1821,19 +1829,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
@@ -1859,19 +1867,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
@@ -1897,19 +1905,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
@@ -1930,19 +1938,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -1966,17 +1974,17 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="5">
         <v>8</v>
@@ -1993,19 +2001,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>5</v>
@@ -2028,17 +2036,17 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>5</v>
@@ -2058,17 +2066,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
@@ -2088,19 +2096,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>5</v>
@@ -2120,17 +2128,17 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>6</v>
@@ -2156,17 +2164,17 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="I18" s="5">
         <v>8</v>
@@ -2183,17 +2191,17 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="5">
         <v>28</v>
@@ -2216,19 +2224,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>98</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>5</v>
@@ -2244,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,19 +2263,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>100</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>6</v>
@@ -2283,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2299,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,16 +2324,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2343,7 +2351,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,7 +2369,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2379,7 +2387,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2397,7 +2405,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <f>6*(9+14+5)</f>
@@ -2419,7 +2427,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2437,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2455,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,7 +2481,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,7 +2529,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2539,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2557,7 +2565,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2590,7 +2598,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,7 +2682,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2710,7 +2718,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,7 +2862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2929,7 +2937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2974,7 +2982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3033,8 +3041,11 @@
       <c r="D44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3079,7 +3090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33718A0-5B19-4EC5-BB13-C6D1B8D6BE17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718A468-7A33-064C-8954-69B1B12EA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19700" yWindow="460" windowWidth="18700" windowHeight="23540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -428,14 +428,6 @@
     <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.</t>
   </si>
   <si>
-    <t xml:space="preserve">Marko - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Sugi - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Jana - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Alain - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Dave - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Viktor - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std </t>
-  </si>
-  <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
 Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
@@ -443,6 +435,24 @@
   </si>
   <si>
     <t>Remaining Effort [h]</t>
+  </si>
+  <si>
+    <t>Alain - Kommentieren - 6 Std</t>
+  </si>
+  <si>
+    <t>Marko - Kommentieren - 1 Std</t>
+  </si>
+  <si>
+    <t>Marko - Berechtigung einrichten - 1Std
+Alain - Berechtigung einrichten und Sysout entfernen - Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Sugi - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Jana - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Alain - Koordination programierung MVP &amp; Änderung Datenbank - 8 Std 
+Dave - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std 
+Viktor - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std </t>
   </si>
 </sst>
 </file>
@@ -645,7 +655,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1173,17 +1183,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1260,12 +1270,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1305,20 +1315,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1367,7 +1377,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1393,7 +1403,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1417,7 +1427,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1439,7 +1449,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1507,18 +1517,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1541,22 +1551,22 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2183,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2307,19 +2317,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2327,7 +2337,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>76</v>
@@ -2336,7 +2346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2430,7 +2440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2448,7 +2458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2514,7 +2524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2565,10 +2575,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2583,7 +2593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2601,7 +2611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2616,7 +2626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2634,7 +2644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2685,7 +2695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2736,7 +2746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2847,7 +2857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2877,7 +2887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2892,7 +2902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2922,7 +2932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2967,7 +2977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2982,7 +2992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2997,7 +3007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3042,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3075,7 +3085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3090,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3105,7 +3115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3119,8 +3129,11 @@
       <c r="D49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3134,8 +3147,11 @@
       <c r="D50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3149,8 +3165,11 @@
       <c r="D51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3180,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3195,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718A468-7A33-064C-8954-69B1B12EA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E052D-978E-CE4F-8D18-B303ACEF4925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19700" yWindow="460" windowWidth="18700" windowHeight="23540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,13 +421,6 @@
     <t>Die Klasse Patient annotieren</t>
   </si>
   <si>
-    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
-Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.</t>
-  </si>
-  <si>
-    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.</t>
-  </si>
-  <si>
     <t>Alain - : MVP Modelierung  9 Std
 Marko-: MVP Modelierung 9 Std
 Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
@@ -453,6 +446,15 @@
 Alain - Koordination programierung MVP &amp; Änderung Datenbank - 8 Std 
 Dave - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std 
 Viktor - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std </t>
+  </si>
+  <si>
+    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.
+Alain - Funktionen programmieren &amp; MVP - 8 Std.</t>
+  </si>
+  <si>
+    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
+Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.
+Alain - Funktionen Programmieren &amp; MVP - 12Std.</t>
   </si>
 </sst>
 </file>
@@ -2317,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2337,7 +2339,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>76</v>
@@ -2575,7 +2577,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2791,7 +2793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2806,10 +2808,10 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2823,8 +2825,8 @@
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
-        <v>121</v>
+      <c r="E29" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,7 +3054,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3166,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Documents/GitHub/BTX 8081 Projekt/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E052D-978E-CE4F-8D18-B303ACEF4925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA2D08D-22A9-EE46-928E-6478418BAAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19700" yWindow="460" windowWidth="18700" windowHeight="23540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="460" windowWidth="22120" windowHeight="19680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -455,6 +457,46 @@
     <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
 Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.
 Alain - Funktionen Programmieren &amp; MVP - 12Std.</t>
+  </si>
+  <si>
+    <t>UI IDs ersetzen</t>
+  </si>
+  <si>
+    <t>IDs durch Datum 
+oder PatNamen ersetzen</t>
+  </si>
+  <si>
+    <t>gaupa1, selvs1</t>
+  </si>
+  <si>
+    <t>Baustellen fertigstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank
+</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>modellieren Zusatzverbindungen
+Service Klasse (DBServiceQuery + FK)</t>
+  </si>
+  <si>
+    <t>selvs1, gaupa1</t>
+  </si>
+  <si>
+    <t>selj1</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Struktur nach MVP 
+Auslagerung der ServiceKlassen in Presenter.</t>
   </si>
 </sst>
 </file>
@@ -825,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:L21" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:L25" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
@@ -1313,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1547,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="89" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2037,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -2128,8 +2170,11 @@
       <c r="I16" s="5">
         <v>8</v>
       </c>
+      <c r="J16" s="5">
+        <v>11</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,6 +2349,134 @@
       </c>
       <c r="L21" s="5" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="B22" s="28">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="B23" s="28">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="B24" s="28">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B25" s="28">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="114" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA2D08D-22A9-EE46-928E-6478418BAAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9833F-E87E-504F-B700-45A58443BF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="460" windowWidth="22120" windowHeight="19680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="27740" windowHeight="19680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -408,12 +408,6 @@
 Sugi - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
   </si>
   <si>
-    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
-Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
-IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std
-Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 4 Std</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dummydaten </t>
   </si>
   <si>
@@ -476,9 +470,6 @@
 </t>
   </si>
   <si>
-    <t>alle</t>
-  </si>
-  <si>
     <t>JPA</t>
   </si>
   <si>
@@ -497,6 +488,15 @@
   <si>
     <t>Struktur nach MVP 
 Auslagerung der ServiceKlassen in Presenter.</t>
+  </si>
+  <si>
+    <t>Grudngerüst nach MVP entwickeln. Fehler beheben</t>
+  </si>
+  <si>
+    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
+IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std
+Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 5 Std</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1415,8 +1415,8 @@
         <v>42</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>75</v>
+      <c r="H2" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1441,8 +1441,8 @@
         <v>94</v>
       </c>
       <c r="G3"/>
-      <c r="H3" s="5" t="s">
-        <v>75</v>
+      <c r="H3" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1487,8 +1487,8 @@
       <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>8</v>
+      <c r="H5" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
@@ -1537,8 +1537,8 @@
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="19" t="s">
-        <v>8</v>
+      <c r="H7" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -1557,8 +1557,8 @@
       <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
+      <c r="H8" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2055,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>106</v>
@@ -2153,7 +2153,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>106</v>
@@ -2171,6 +2171,9 @@
         <v>8</v>
       </c>
       <c r="J16" s="5">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5">
         <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -2250,7 +2253,9 @@
       <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>107</v>
       </c>
@@ -2359,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>72</v>
@@ -2371,7 +2376,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -2391,19 +2396,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>5</v>
@@ -2423,19 +2428,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>5</v>
@@ -2455,19 +2460,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>5</v>
@@ -2492,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A14" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,7 +2517,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>76</v>
@@ -2750,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2783,7 +2788,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2981,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2999,7 +3004,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3227,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3341,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Miletic\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9833F-E87E-504F-B700-45A58443BF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59B29E-1D9A-4AEA-A2E0-101F26D8C786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="27740" windowHeight="19680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,14 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -497,6 +495,15 @@
 Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
 IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std
 Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 5 Std</t>
+  </si>
+  <si>
+    <t>Marko - Datenbank INSERT SCRIPT schreiben für Demonstration und befüllen mit reports und diagnosen - 4 Std</t>
+  </si>
+  <si>
+    <t>Marko - Screencast Demonstration planen und aufnehmen, Video konvertieren hochladen - 1.5 Std</t>
+  </si>
+  <si>
+    <t>Marko - Annotation JPA, Autoincrement Problem - 2 Std</t>
   </si>
 </sst>
 </file>
@@ -699,7 +706,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -849,7 +856,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
+  <sortState ref="A2:H8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="8">
@@ -1227,17 +1234,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1314,12 +1321,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1355,24 +1362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1421,7 +1428,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1447,7 +1454,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1471,7 +1478,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1493,7 +1500,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1561,18 +1568,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1591,26 +1598,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="B9" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.2200000000000002</v>
       </c>
@@ -2082,7 +2089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2142,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2.5</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>3.1</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>3.2</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>3.3</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>3.4</v>
       </c>
@@ -2497,19 +2504,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="92.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2602,7 +2609,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2638,7 +2645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2656,7 +2663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2689,7 +2696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2722,7 +2729,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2758,7 +2765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2791,7 +2798,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2806,7 +2813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2824,7 +2831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2857,7 +2864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2941,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2989,7 +2996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3142,7 +3149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3187,7 +3194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3202,7 +3209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3265,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3294,8 +3301,11 @@
       <c r="D48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3349,7 +3359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3363,8 +3373,11 @@
       <c r="D52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3378,8 +3391,11 @@
       <c r="D53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3394,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3409,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Miletic\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59B29E-1D9A-4AEA-A2E0-101F26D8C786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4A476-1137-41C0-86A8-C926A1845F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -253,12 +253,6 @@
   </si>
   <si>
     <t>vaadin</t>
-  </si>
-  <si>
-    <t>eclipse</t>
-  </si>
-  <si>
-    <t>vaadin, eclipse</t>
   </si>
   <si>
     <t>progress</t>
@@ -373,9 +367,6 @@
     <t>Klassenmodell</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Model / View / Presenter</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dummydaten </t>
-  </si>
-  <si>
-    <t>Datenbank mit Patient und Docktor  befüllen</t>
   </si>
   <si>
     <t>Die Klasse Patient annotieren</t>
@@ -464,10 +452,6 @@
     <t>Baustellen fertigstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank
-</t>
-  </si>
-  <si>
     <t>JPA</t>
   </si>
   <si>
@@ -500,10 +484,32 @@
     <t>Marko - Datenbank INSERT SCRIPT schreiben für Demonstration und befüllen mit reports und diagnosen - 4 Std</t>
   </si>
   <si>
-    <t>Marko - Screencast Demonstration planen und aufnehmen, Video konvertieren hochladen - 1.5 Std</t>
-  </si>
-  <si>
     <t>Marko - Annotation JPA, Autoincrement Problem - 2 Std</t>
+  </si>
+  <si>
+    <t>Marko - Screencast Demonstration planen und aufnehmen, Video konvertieren hochladen - 1.5 Std
+Sugi - Codeinspection und allfällige Error-Meldungen behandeln  - 1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Model / View</t>
+  </si>
+  <si>
+    <t>Datenbank mit Patienten und Doktoren befüllen</t>
+  </si>
+  <si>
+    <t>Model / Database</t>
+  </si>
+  <si>
+    <t>Code Inspection</t>
+  </si>
+  <si>
+    <t>Gesamtprojekt scannen und allfällige Fehler beheben</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -697,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -856,7 +865,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
-  <sortState ref="A2:H8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="8">
@@ -874,8 +883,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:L25" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
@@ -1362,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A3" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1432,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1436,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1449,7 +1458,7 @@
       </c>
       <c r="G3"/>
       <c r="H3" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1473,7 +1482,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="26"/>
       <c r="H4" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -1495,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
@@ -1523,7 +1532,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1545,7 +1554,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
       <c r="H7" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1556,7 +1565,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1565,7 +1574,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1596,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>68</v>
@@ -1691,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1708,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>68</v>
@@ -1730,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1747,7 +1756,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>70</v>
@@ -1768,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1785,7 +1794,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>69</v>
@@ -1823,7 +1832,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>25</v>
@@ -1841,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1858,7 +1867,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>26</v>
@@ -1879,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1896,7 +1905,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -1934,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>23</v>
@@ -1972,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>68</v>
@@ -1999,13 +2008,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>69</v>
@@ -2035,11 +2044,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>69</v>
@@ -2062,13 +2071,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>25</v>
@@ -2086,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,11 +2106,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>28</v>
@@ -2127,11 +2136,11 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
@@ -2157,13 +2166,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>25</v>
@@ -2184,7 +2193,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,11 +2204,11 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>70</v>
@@ -2231,11 +2240,11 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>27</v>
@@ -2258,19 +2267,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I19" s="5">
         <v>28</v>
@@ -2293,13 +2302,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>70</v>
@@ -2321,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>70</v>
@@ -2360,7 +2369,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2371,19 +2380,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -2395,7 +2404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>3.2</v>
       </c>
@@ -2403,13 +2412,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>70</v>
@@ -2435,19 +2444,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>5</v>
@@ -2463,17 +2472,17 @@
       <c r="A25" s="5">
         <v>3.4</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="5">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>23</v>
@@ -2489,6 +2498,44 @@
       </c>
       <c r="L25" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B26" s="28">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2504,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A36" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,13 +2571,13 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2548,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2566,7 +2613,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2584,7 +2631,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2602,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <f>6*(9+14+5)</f>
@@ -2624,7 +2671,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2642,7 +2689,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2660,7 +2707,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,7 +2773,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2744,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2762,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,7 +2842,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,7 +2875,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,7 +2893,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,7 +2926,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2915,7 +2962,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3011,7 +3058,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,7 +3286,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3302,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3356,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,10 +3421,10 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3391,8 +3438,8 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>141</v>
+      <c r="E53" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3408,6 +3455,9 @@
       </c>
       <c r="D54">
         <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4A476-1137-41C0-86A8-C926A1845F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63DFF11-2FD3-AD4C-81B4-3544610F802A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="33560" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +63,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">patientView Logik nach MVP implementieren inkl. trivialer Getter-Methoden für Patientenauflistung. </t>
-  </si>
-  <si>
-    <t>vaadin</t>
-  </si>
-  <si>
-    <t>progress</t>
   </si>
   <si>
     <t>Remaining Ressources [days]</t>
@@ -295,14 +289,6 @@
 Alain - Alle: Alle Klassen aufräumen und kommentieren - 4 Std</t>
   </si>
   <si>
-    <t>Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std David - 1.1: MainLayout Design - 2 Std
-Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
-Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
-Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
-Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grundgerüst </t>
   </si>
   <si>
@@ -310,9 +296,6 @@
   </si>
   <si>
     <t>Der Facharzt kann die Medizinverordnung eines Patienten im Medikamenten-View strukturiert sehen. Der Facharzt kann neue Medizinverordnungen einem Patienten zuordnen und abfragen.</t>
-  </si>
-  <si>
-    <t>canceled</t>
   </si>
   <si>
     <t xml:space="preserve">Medikation: Persistierung/View  </t>
@@ -355,39 +338,17 @@
     <t>Sugi - 2.9: DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
   </si>
   <si>
-    <t>Alain - : MVP Modelierung  5 Std
-Marko-: MVP Modelierung 5 Std
-Sugi - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
-              Login Prozess mit JPA testen - 9 Std</t>
-  </si>
-  <si>
-    <t>Task 06</t>
-  </si>
-  <si>
-    <t>Klassenmodell</t>
-  </si>
-  <si>
     <t>Model / View / Presenter</t>
   </si>
   <si>
     <t>IDE</t>
-  </si>
-  <si>
-    <t>Klassendiagramm aktualisieren, ER-Diagramm überprüfen</t>
   </si>
   <si>
     <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
 beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
   </si>
   <si>
-    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std</t>
-  </si>
-  <si>
     <t>Model / Presenter / Database</t>
-  </si>
-  <si>
-    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
-Sugi/Janahan Entiitäten JPA Annotationen machen - 1.5 Std</t>
   </si>
   <si>
     <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
@@ -398,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dummydaten </t>
-  </si>
-  <si>
-    <t>Die Klasse Patient annotieren</t>
   </si>
   <si>
     <t>Alain - : MVP Modelierung  9 Std
@@ -416,10 +374,6 @@
   </si>
   <si>
     <t>Marko - Kommentieren - 1 Std</t>
-  </si>
-  <si>
-    <t>Marko - Berechtigung einrichten - 1Std
-Alain - Berechtigung einrichten und Sysout entfernen - Std</t>
   </si>
   <si>
     <t xml:space="preserve">Marko - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
@@ -439,9 +393,6 @@
 Alain - Funktionen Programmieren &amp; MVP - 12Std.</t>
   </si>
   <si>
-    <t>UI IDs ersetzen</t>
-  </si>
-  <si>
     <t>IDs durch Datum 
 oder PatNamen ersetzen</t>
   </si>
@@ -491,9 +442,6 @@
 Sugi - Codeinspection und allfällige Error-Meldungen behandeln  - 1 Std</t>
   </si>
   <si>
-    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -510,13 +458,69 @@
   </si>
   <si>
     <t>Gesamtprojekt scannen und allfällige Fehler beheben</t>
+  </si>
+  <si>
+    <t>Marko - Berechtigung einrichten - 1Std
+Alain - Berechtigung einrichten und Sysout entfernen -1 Std</t>
+  </si>
+  <si>
+    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std
+Janahan Scrum berechnen und fertigstellen - (vakant</t>
+  </si>
+  <si>
+    <t>Sugi - 1.1: Navigationskonzept - 1 Std
+Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std 
+David - 1.1: MainLayout Design - 2 Std
+Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
+Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
+Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
+Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
+  </si>
+  <si>
+    <t>Start Sprint 3</t>
+  </si>
+  <si>
+    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
+Sugi/Janahan Entiitäten JPA Annotationen machen - 2 Std</t>
+  </si>
+  <si>
+    <t>Alain - : MVP Modelierung  5 Std
+Marko-: MVP Modelierung 5 Std
+Sugi - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
+              Login Prozess mit JPA testen - 9 Std
+Janahan - 5.1: Scrum mit Sugi, lauffähiges JPA - 5</t>
+  </si>
+  <si>
+    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std
+Janahan -2.2: Mit Sugi ER-Diagramm kontrollieren -3 Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassendiagramm aktualisieren, ER-Diagramm überprüfen. </t>
+  </si>
+  <si>
+    <t>Datenabnk: ER Modell</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Korrektur Design; JPA Annotation, Verknüpfung mit dem Presenter</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Korrektur </t>
+  </si>
+  <si>
+    <t>view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +578,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -613,7 +624,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -684,15 +695,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -704,8 +711,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -714,34 +721,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -802,6 +781,34 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -883,32 +890,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort [h]"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1243,123 +1250,123 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1371,29 +1378,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -1402,27 +1409,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1430,22 +1437,27 @@
       <c r="E2" s="4">
         <v>42</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="32" t="s">
-        <v>98</v>
+      <c r="F2" s="5">
+        <v>57</v>
+      </c>
+      <c r="G2" s="5">
+        <v>59</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1454,24 +1466,28 @@
         <v>84</v>
       </c>
       <c r="F3" s="5">
-        <v>94</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="32" t="s">
-        <v>98</v>
+        <f>106-18-6</f>
+        <v>82</v>
+      </c>
+      <c r="G3" s="5">
+        <f>132-17-14-11</f>
+        <v>90</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>5</v>
@@ -1479,23 +1495,27 @@
       <c r="E4" s="25">
         <v>20</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27" t="s">
-        <v>87</v>
+      <c r="F4" s="23">
+        <v>18</v>
+      </c>
+      <c r="G4" s="23">
+        <v>25</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1503,21 +1523,24 @@
       <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="7"/>
+      <c r="H5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUM(G3:G6)</f>
+        <v>132</v>
+      </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -1531,19 +1554,19 @@
       <c r="G6" s="5">
         <v>17</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>5</v>
@@ -1553,19 +1576,19 @@
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1573,22 +1596,22 @@
       <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1605,33 +1628,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -1639,32 +1662,32 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1672,19 +1695,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1700,10 +1723,10 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1711,19 +1734,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1739,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1750,19 +1773,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -1777,10 +1800,10 @@
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1788,19 +1811,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1815,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1826,19 +1849,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
@@ -1849,11 +1872,14 @@
       <c r="J6" s="5">
         <v>6</v>
       </c>
+      <c r="K6" s="5">
+        <v>6</v>
+      </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1861,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -1888,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1899,19 +1925,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
@@ -1926,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1937,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
@@ -1964,30 +1990,30 @@
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
@@ -1996,11 +2022,17 @@
         <f>6*2</f>
         <v>12</v>
       </c>
+      <c r="J10" s="5">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5">
+        <v>17</v>
+      </c>
       <c r="L10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2008,19 +2040,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>106</v>
+        <v>138</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -2028,15 +2060,17 @@
       <c r="I11" s="5">
         <v>2</v>
       </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
       <c r="K11" s="5">
-        <f>3</f>
         <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2044,46 +2078,57 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I12" s="5">
         <v>8</v>
       </c>
+      <c r="J12" s="5">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>14</v>
+      </c>
       <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>2.2200000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>5</v>
@@ -2092,13 +2137,20 @@
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M13">
+        <f>SUM(J11:J21)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2106,17 +2158,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>5</v>
@@ -2124,11 +2178,17 @@
       <c r="I14" s="5">
         <v>8</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="5">
+        <v>9</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2136,17 +2196,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
@@ -2154,31 +2216,37 @@
       <c r="I15" s="5">
         <v>8</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="5">
+        <v>10</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>5</v>
@@ -2193,10 +2261,10 @@
         <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2204,17 +2272,19 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>6</v>
@@ -2229,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2240,26 +2310,37 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="30"/>
+        <v>88</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="5">
         <v>8</v>
       </c>
+      <c r="J18" s="5">
+        <v>10</v>
+      </c>
+      <c r="K18" s="5">
+        <v>14</v>
+      </c>
       <c r="L18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2267,19 +2348,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>133</v>
+        <v>80</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I19" s="5">
         <v>28</v>
@@ -2291,10 +2375,10 @@
         <v>28</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2302,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>5</v>
@@ -2330,30 +2414,30 @@
         <v>12</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>6</v>
@@ -2369,30 +2453,30 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>3.1</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>124</v>
+        <v>142</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -2401,30 +2485,30 @@
         <v>4</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>3.2</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>5</v>
@@ -2433,30 +2517,30 @@
         <v>8</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>3.3</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>5</v>
@@ -2465,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>3.4</v>
       </c>
@@ -2476,19 +2560,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>118</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>5</v>
@@ -2497,30 +2581,30 @@
         <v>4</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>3.5</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>7</v>
@@ -2535,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2551,36 +2635,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A39" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2595,10 +2679,10 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2613,10 +2697,10 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2631,10 +2715,10 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2649,14 +2733,14 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="H5">
         <f>6*(9+14+5)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2671,10 +2755,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2689,10 +2773,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2707,10 +2791,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2724,11 +2808,11 @@
       <c r="D9">
         <v>48</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2743,7 +2827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2758,7 +2842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2766,17 +2850,17 @@
         <v>43801</v>
       </c>
       <c r="C12">
-        <f>C11</f>
-        <v>109</v>
+        <f>C11-5</f>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2784,17 +2868,17 @@
         <v>43802</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C12-5-5-9-5</f>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2802,17 +2886,17 @@
         <v>43803</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C13-9-9-1-1</f>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2821,13 +2905,13 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2835,17 +2919,17 @@
         <v>43805</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C15-4-5</f>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2854,13 +2938,13 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2868,17 +2952,17 @@
         <v>43807</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C17-10</f>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2886,17 +2970,17 @@
         <v>43808</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C18-3-3</f>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2905,13 +2989,13 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2919,17 +3003,17 @@
         <v>43810</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C20-3-2</f>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2937,17 +3021,17 @@
         <v>43811</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C21-6</f>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2955,17 +3039,17 @@
         <v>43812</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C22-4-4</f>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2974,13 +3058,13 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2989,13 +3073,13 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3004,13 +3088,13 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3019,13 +3103,13 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3033,17 +3117,17 @@
         <v>43817</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C27-3.5-3.5-12</f>
+        <v>-3</v>
       </c>
       <c r="D28">
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3051,17 +3135,17 @@
         <v>43818</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C28-12-8</f>
+        <v>-23</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3070,13 +3154,16 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3085,13 +3172,13 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D31">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3100,13 +3187,13 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3115,13 +3202,13 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D33">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3130,13 +3217,13 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D34">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3145,13 +3232,13 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D35">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3160,13 +3247,13 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D36">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3175,13 +3262,13 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3190,13 +3277,13 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D38">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3205,13 +3292,13 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D39">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3220,13 +3307,13 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D40">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3235,13 +3322,13 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3250,13 +3337,13 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3265,13 +3352,13 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-23</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3279,17 +3366,17 @@
         <v>43833</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C43-8-8-8-8-6-6</f>
+        <v>-67</v>
       </c>
       <c r="D44">
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3298,13 +3385,13 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-67</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3313,13 +3400,13 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-67</v>
       </c>
       <c r="D46">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3328,13 +3415,13 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-67</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3342,17 +3429,17 @@
         <v>43837</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C47-2</f>
+        <v>-69</v>
       </c>
       <c r="D48">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3360,17 +3447,17 @@
         <v>43838</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C48-6</f>
+        <v>-75</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3378,17 +3465,17 @@
         <v>43839</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C49-1</f>
+        <v>-76</v>
       </c>
       <c r="D50">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3396,17 +3483,17 @@
         <v>43840</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C50-1-1</f>
+        <v>-78</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3414,17 +3501,17 @@
         <v>43841</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C51-4</f>
+        <v>-82</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3432,17 +3519,17 @@
         <v>43842</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C52-1.5-1</f>
+        <v>-84.5</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3450,17 +3537,17 @@
         <v>43843</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <f>C53-3</f>
+        <v>-87.5</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
-      <c r="E54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3469,13 +3556,13 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-87.5</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3484,13 +3571,13 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-87.5</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3499,7 +3586,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-87.5</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3513,4 +3600,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779708A0-168D-5943-9FCF-2430276B92FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63DFF11-2FD3-AD4C-81B4-3544610F802A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D69F6-AD4E-BE49-B82A-DC0482148000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="33560" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="33560" windowHeight="19480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -457,15 +457,8 @@
     <t>Code Inspection</t>
   </si>
   <si>
-    <t>Gesamtprojekt scannen und allfällige Fehler beheben</t>
-  </si>
-  <si>
     <t>Marko - Berechtigung einrichten - 1Std
 Alain - Berechtigung einrichten und Sysout entfernen -1 Std</t>
-  </si>
-  <si>
-    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std
-Janahan Scrum berechnen und fertigstellen - (vakant</t>
   </si>
   <si>
     <t>Sugi - 1.1: Navigationskonzept - 1 Std
@@ -515,12 +508,20 @@
   <si>
     <t>view</t>
   </si>
+  <si>
+    <t>Gesamtprojekt scannen und allfällige Fehler beheben und testen</t>
+  </si>
+  <si>
+    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std
+Janahan - Scrum berechnen und fertigstellen - 2 Std
+Sugi - Scrum berechnen und fertigstellen - 2 Std</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,13 +579,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -624,7 +618,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -711,9 +705,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -721,6 +712,34 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -781,34 +800,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -890,32 +881,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort [h]"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1378,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1515,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J5" s="7">
         <f>SUM(G3:G6)</f>
@@ -1577,7 +1568,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
       <c r="H7" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -1597,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1631,7 +1622,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J22" sqref="J22:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,13 +2031,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>68</v>
@@ -2081,7 +2072,7 @@
         <v>83</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>96</v>
@@ -2161,7 +2152,7 @@
         <v>84</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>96</v>
@@ -2184,8 +2175,8 @@
       <c r="K14" s="5">
         <v>9</v>
       </c>
-      <c r="L14" s="32" t="s">
-        <v>141</v>
+      <c r="L14" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2199,7 +2190,7 @@
         <v>85</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>96</v>
@@ -2222,8 +2213,8 @@
       <c r="K15" s="5">
         <v>10</v>
       </c>
-      <c r="L15" s="32" t="s">
-        <v>141</v>
+      <c r="L15" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,7 +2228,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>96</v>
@@ -2275,7 +2266,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>96</v>
@@ -2313,7 +2304,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>96</v>
@@ -2458,19 +2449,19 @@
     </row>
     <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>3.1</v>
+        <v>2.11</v>
       </c>
       <c r="B22" s="27">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>81</v>
@@ -2490,7 +2481,7 @@
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="B23" s="27">
         <v>3</v>
@@ -2522,7 +2513,7 @@
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>3.3</v>
+        <v>2.13</v>
       </c>
       <c r="B24" s="27">
         <v>3</v>
@@ -2554,7 +2545,7 @@
     </row>
     <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>3.4</v>
+        <v>2.14</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -2586,7 +2577,7 @@
     </row>
     <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="B26" s="27">
         <v>3</v>
@@ -2595,19 +2586,19 @@
         <v>128</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -2635,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="158" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2733,7 +2724,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <f>6*(9+14+5)</f>
@@ -2875,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2977,7 +2968,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3010,7 +3001,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,14 +3528,14 @@
         <v>43843</v>
       </c>
       <c r="C54">
-        <f>C53-3</f>
-        <v>-87.5</v>
+        <f>C53-2-2</f>
+        <v>-88.5</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3556,7 +3547,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>-87.5</v>
+        <v>-88.5</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3571,7 +3562,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-87.5</v>
+        <v>-88.5</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3586,7 +3577,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-87.5</v>
+        <v>-88.5</v>
       </c>
       <c r="D57">
         <v>0</v>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D69F6-AD4E-BE49-B82A-DC0482148000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325A34A-776B-405B-A31A-E6AFF174F456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="33560" windowHeight="19480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BurndownChart!$E$1:$E$2</definedName>
@@ -27,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -512,9 +509,16 @@
     <t>Gesamtprojekt scannen und allfällige Fehler beheben und testen</t>
   </si>
   <si>
-    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std
+    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std</t>
+  </si>
+  <si>
+    <t>Viktor - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6 Std
+David - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6.5 Std
 Janahan - Scrum berechnen und fertigstellen - 2 Std
 Sugi - Scrum berechnen und fertigstellen - 2 Std</t>
+  </si>
+  <si>
+    <t>Ende Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -618,7 +622,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -705,6 +709,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -713,7 +720,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1241,17 +1248,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -1328,12 +1335,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1373,20 +1380,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1440,7 +1447,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1470,7 +1477,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1498,7 +1505,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1523,7 +1530,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1591,18 +1598,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9">
         <f>6*14</f>
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>6*14</f>
         <v>84</v>
@@ -1625,22 +1632,22 @@
       <selection activeCell="J22" sqref="J22:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1717,7 +1724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1832,7 +1839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1946,7 +1953,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.9</v>
       </c>
@@ -2023,7 +2030,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2217,7 +2224,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>3.2</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2.11</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2.12</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2.13</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2.14</v>
       </c>
@@ -2575,7 +2582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2.15</v>
       </c>
@@ -2626,19 +2633,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="158" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="92.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2673,7 +2680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2803,7 +2810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2833,7 +2840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2851,7 +2858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2920,7 +2927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3040,7 +3047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3055,7 +3062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3085,7 +3092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3184,7 +3191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3274,7 +3281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3289,7 +3296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3304,7 +3311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3349,7 +3356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3382,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3430,7 +3437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3466,7 +3473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3502,7 +3509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3528,8 +3535,8 @@
         <v>43843</v>
       </c>
       <c r="C54">
-        <f>C53-2-2</f>
-        <v>-88.5</v>
+        <f>C53-3</f>
+        <v>-87.5</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3538,7 +3545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3547,13 +3554,13 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>-88.5</v>
+        <v>-87.5</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3561,14 +3568,17 @@
         <v>43845</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>-88.5</v>
+        <f>C55-6-6.5-2-2</f>
+        <v>-104</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3577,10 +3587,13 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-88.5</v>
+        <v>-104</v>
       </c>
       <c r="D57">
         <v>0</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3591,16 +3604,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779708A0-168D-5943-9FCF-2430276B92FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325A34A-776B-405B-A31A-E6AFF174F456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE9430-C8FD-4319-959F-8F4B1877912C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -258,34 +258,6 @@
     <t>Start Sprint 2</t>
   </si>
   <si>
-    <t>Sugi - 1.3: IDE Probleme beheben - 4 Std
-Janahan - 1.5: PatientView Design - 4 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Cleancode - 1 Std 
-Sugi - 1.2: Person Classe fertigen - 1 Std
-Alain - 1.5: Patient View neue Suche erstellt - 20 min</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login recherche - 2 Std  
-Janahan - 1.5: recherche - 2 Std</t>
-  </si>
-  <si>
-    <t>Miletic - 1.6: Vaadin recherche - 2 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login nach MVP designen - 6 Std
-Miletic - 1.6: MedicationView - 2 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.3: Login Prozess Quicktest - 2 Std
-Miletic - 1.6: MedicationView english + dummy data - 2 Std
-Alain - 1.3: Login Design und funktionen hinzugefügt - 3 Std
-Alain - 1.8: PatientCase Klasse erstellt - 1 Std
-Alain - 1.7: ReportView erstellen - 3 Std
-Alain - Alle: Alle Klassen aufräumen und kommentieren - 4 Std</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grundgerüst </t>
   </si>
   <si>
@@ -302,15 +274,6 @@
   </si>
   <si>
     <t>Prescription: Persistierung/View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient: Persistierung/View </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report: Persistierung/View  </t>
-  </si>
-  <si>
-    <t>Diagnose: Persistierung/View</t>
   </si>
   <si>
     <t>IDE Setup</t>
@@ -332,62 +295,19 @@
     <t>Der Arzt kann Einstellungen vornehmen, um die Benutzeroberfläche anzupassen oder Passwort zu verändern</t>
   </si>
   <si>
-    <t>Sugi - 2.9: DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
-  </si>
-  <si>
     <t>Model / View / Presenter</t>
   </si>
   <si>
     <t>IDE</t>
   </si>
   <si>
-    <t>Sugi - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
-beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
-  </si>
-  <si>
     <t>Model / Presenter / Database</t>
   </si>
   <si>
-    <t>Sugi - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
-  </si>
-  <si>
-    <t>Janahan - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std
-Sugi - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dummydaten </t>
   </si>
   <si>
-    <t>Alain - : MVP Modelierung  9 Std
-Marko-: MVP Modelierung 9 Std
-Sugi - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
-Janahan ER-Diagramm kontrollieren - 1 Std</t>
-  </si>
-  <si>
     <t>Remaining Effort [h]</t>
-  </si>
-  <si>
-    <t>Alain - Kommentieren - 6 Std</t>
-  </si>
-  <si>
-    <t>Marko - Kommentieren - 1 Std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marko - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Sugi - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Jana - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
-Alain - Koordination programierung MVP &amp; Änderung Datenbank - 8 Std 
-Dave - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std 
-Viktor - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std </t>
-  </si>
-  <si>
-    <t>Sugi - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.
-Alain - Funktionen programmieren &amp; MVP - 8 Std.</t>
-  </si>
-  <si>
-    <t>Janahan - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
-Sugi - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.
-Alain - Funktionen Programmieren &amp; MVP - 12Std.</t>
   </si>
   <si>
     <t>IDs durch Datum 
@@ -423,102 +343,200 @@
     <t>Grudngerüst nach MVP entwickeln. Fehler beheben</t>
   </si>
   <si>
-    <t>Sugi - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
+    <t>View</t>
+  </si>
+  <si>
+    <t>Model / View</t>
+  </si>
+  <si>
+    <t>Datenbank mit Patienten und Doktoren befüllen</t>
+  </si>
+  <si>
+    <t>Model / Database</t>
+  </si>
+  <si>
+    <t>Code Inspection</t>
+  </si>
+  <si>
+    <t>Start Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassendiagramm aktualisieren, ER-Diagramm überprüfen. </t>
+  </si>
+  <si>
+    <t>Datenabnk: ER Modell</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Korrektur Design; JPA Annotation, Verknüpfung mit dem Presenter</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Korrektur </t>
+  </si>
+  <si>
+    <t>Ende Sprint 3</t>
+  </si>
+  <si>
+    <t>Gesamtprojekt scannen und allfällige Fehler beheben und testen mit jUnit</t>
+  </si>
+  <si>
+    <t>BurndownChart</t>
+  </si>
+  <si>
+    <t>Zeitbudget</t>
+  </si>
+  <si>
+    <t>Überzogen</t>
+  </si>
+  <si>
+    <t>Total zu verbuchen</t>
+  </si>
+  <si>
+    <t>Bereits verbucht</t>
+  </si>
+  <si>
+    <t>Noch zu verbuchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient:
+ Persistierung/View </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: 
+Persistierung/View  </t>
+  </si>
+  <si>
+    <t>Diagnose: 
+Persistierung/View</t>
+  </si>
+  <si>
+    <t>selvs1 - 2.9: DB erstellen, JPA einrichten auf Eclipse, Fehlerbehebung - 5 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 5.1: LoginService erstellen. LoginModel, LoginPresenter, LoginView und LoginViewImpl Logikfehler
+beheben und kommentieren Login; viele Korrekturen durchführen. Javadoc. Datenbank Zugriff mit Login testen - 10 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 2.alle: JPA Annotation korrektur, Tabellen erzeugen, Model Klassen korrigieren. 6 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.3: IDE Probleme beheben - 4 Std
+sellj1 - 1.5: PatientView Design - 4 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.3: Login recherche - 2 Std  
+sellj1 - 1.5: recherche - 2 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 2.9: SVN Probleme durch Package renaming lösen. Gespräch mit Dozenten., 
 Aufträge verteilen. Schulung + Vorlage für Classenanotation erstellen. 
 IDE Probleme beheben. Classendesign überprüfen. Meeting. - 4 Std
-Janahan - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 5 Std</t>
-  </si>
-  <si>
-    <t>Marko - Datenbank INSERT SCRIPT schreiben für Demonstration und befüllen mit reports und diagnosen - 4 Std</t>
-  </si>
-  <si>
-    <t>Marko - Annotation JPA, Autoincrement Problem - 2 Std</t>
-  </si>
-  <si>
-    <t>Marko - Screencast Demonstration planen und aufnehmen, Video konvertieren hochladen - 1.5 Std
-Sugi - Codeinspection und allfällige Error-Meldungen behandeln  - 1 Std</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Model / View</t>
-  </si>
-  <si>
-    <t>Datenbank mit Patienten und Doktoren befüllen</t>
-  </si>
-  <si>
-    <t>Model / Database</t>
-  </si>
-  <si>
-    <t>Code Inspection</t>
-  </si>
-  <si>
-    <t>Marko - Berechtigung einrichten - 1Std
-Alain - Berechtigung einrichten und Sysout entfernen -1 Std</t>
-  </si>
-  <si>
-    <t>Sugi - 1.1: Navigationskonzept - 1 Std
-Sugi - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std 
-David - 1.1: MainLayout Design - 2 Std
-Janahan -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
-Miletic - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
-Alain - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
-Alain - 1.8 :AppointmentView erstellt - 4 Std</t>
-  </si>
-  <si>
-    <t>Start Sprint 3</t>
-  </si>
-  <si>
-    <t>Sugi - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
-Sugi/Janahan Entiitäten JPA Annotationen machen - 2 Std</t>
-  </si>
-  <si>
-    <t>Alain - : MVP Modelierung  5 Std
-Marko-: MVP Modelierung 5 Std
-Sugi - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
+sellj1 - IDE Probleme beheben. Classendesign überprüfen. Annotation Meeting. - 5 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 2.2: Mit sellj1 ER-Diagramm kontrollieren - 3 Std
+sellj1 -2.2: Mit selvs1 ER-Diagramm kontrollieren -3 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 2.6: Bei allen Entitäten JPA Annotation machen - 3 Std
+selvs1/sellj1 Entiitäten JPA Annotationen machen - 2 Std</t>
+  </si>
+  <si>
+    <t>sellj1 - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std
+selvs1 - Dummydaten JPAPatient, korrektur, Gespräch mit Owner, Scrum Meeting 4 Std</t>
+  </si>
+  <si>
+    <t>milem2 - 1.6: Vaadin recherche - 2 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.3: Login nach MVP designen - 6 Std
+milem2 - 1.6: MedicationView - 2 Std</t>
+  </si>
+  <si>
+    <t>milem2 - Annotation JPA, Autoincrement Problem - 2 Std</t>
+  </si>
+  <si>
+    <t>milem2 - Kommentieren - 1 Std</t>
+  </si>
+  <si>
+    <t>milem2 - Datenbank INSERT SCRIPT schreiben für Demonstration und befüllen mit reports und diagnosen - 4 Std</t>
+  </si>
+  <si>
+    <t>milem2 - Screencast Demonstration planen und aufnehmen, Video konvertieren hochladen - 1.5 Std
+selvs1 - Codeinspection und allfällige Error-Meldungen behandeln  - 1 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.3: Login Prozess Quicktest - 2 Std
+milem2 - 1.6: MedicationView english + dummy data - 2 Std
+nippa1 - 1.3: Login Design und funktionen hinzugefügt - 3 Std
+nippa1 - 1.8: PatientCase Klasse erstellt - 1 Std
+nippa1 - 1.7: ReportView erstellen - 3 Std
+nippa1 - Alle: Alle Klassen aufräumen und kommentieren - 4 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.3: Cleancode - 1 Std 
+selvs1 - 1.2: Person Classe fertigen - 1 Std
+nippa1 - 1.5: Patient View neue Suche erstellt - 20 min</t>
+  </si>
+  <si>
+    <t>nippa1 - : MVP Modelierung  5 Std
+milem2-: MVP Modelierung 5 Std
+selvs1 - 5.1: Scrum mit Jana, lauffähiges JPA Konfiguration auf Eclipse/Intellij,
               Login Prozess mit JPA testen - 9 Std
-Janahan - 5.1: Scrum mit Sugi, lauffähiges JPA - 5</t>
-  </si>
-  <si>
-    <t>Sugi - 2.2: Mit Janahan ER-Diagramm kontrollieren - 3 Std
-Janahan -2.2: Mit Sugi ER-Diagramm kontrollieren -3 Std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassendiagramm aktualisieren, ER-Diagramm überprüfen. </t>
-  </si>
-  <si>
-    <t>Datenabnk: ER Modell</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Korrektur Design; JPA Annotation, Verknüpfung mit dem Presenter</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI Korrektur </t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>Gesamtprojekt scannen und allfällige Fehler beheben und testen</t>
-  </si>
-  <si>
-    <t>Sugi - Selenium Versuch Vorlage jUnit zu erstellen - 3 Std</t>
-  </si>
-  <si>
-    <t>Viktor - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6 Std
-David - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6.5 Std
-Janahan - Scrum berechnen und fertigstellen - 2 Std
-Sugi - Scrum berechnen und fertigstellen - 2 Std</t>
-  </si>
-  <si>
-    <t>Ende Sprint 3</t>
+sellj1 - 5.1: Scrum mit selvs1, lauffähiges JPA - 5</t>
+  </si>
+  <si>
+    <t>nippa1 - : MVP Modelierung  9 Std
+milem2-: MVP Modelierung 9 Std
+selvs1 - 5.1: Unterstützung bei MVP, MVP revidieren - 1 Std
+sellj1 ER-Diagramm kontrollieren - 1 Std</t>
+  </si>
+  <si>
+    <t>sellj1 - Persistierung, Daten Anzeigen (Patienten) im View 3.5 Std.
+selvs1 - Persistierung, Daten Anzeigen (Patienten im View 3.5 Std.
+nippa1 - Funktionen Programmieren &amp; MVP - 12Std.</t>
+  </si>
+  <si>
+    <t>selvs1 - Vaadin und Datenbankzugriff -&gt; Patientenliste; Service Classe editieren  - 12 Std.
+nippa1 - Funktionen programmieren &amp; MVP - 8 Std.</t>
+  </si>
+  <si>
+    <t>nippa1 - Kommentieren - 6 Std</t>
+  </si>
+  <si>
+    <t>milem2 - Berechtigung einrichten - 1Std
+nippa1 - Berechtigung einrichten und Sysout entfernen -1 Std</t>
+  </si>
+  <si>
+    <t>selvs1 - 1.1: Navigationskonzept - 1 Std
+selvs1 - 1.2 bis 1.3: Layout Designs in der Gruppe - 3 Std 
+gaupa1 - 1.1: MainLayout Design - 2 Std
+sellj1 -1.3  und 1.5: Layout Designs in der Gruppe - 2 Std
+milem2 - 1.1: und 1.2 Main View, Grudngerüst - 3 Std
+nippa1 - 1.1: MainLayout Design und bearbeitung der Funktionen - 4 Std
+nippa1 - 1.8 :AppointmentView erstellt - 4 Std</t>
+  </si>
+  <si>
+    <t>velkv1 - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6 Std
+gaupa1 - JUnit Testklassen um JPA-Persistierung zu testen (ReportViewImplTest) - 6.5 Std
+sellj1 - Scrum berechnen und fertigstellen - 2 Std
+selvs1 - Scrum berechnen und fertigstellen - 2 Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milem2 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+selvs1 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+Jana - Offene Pendenzen bei div. Klassen im Team bearbeiten - 8 Std 
+nippa1 - Koordination programierung MVP &amp; Änderung Datenbank - 8 Std 
+gaupa1 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std 
+velkv1 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std </t>
   </si>
 </sst>
 </file>
@@ -622,7 +640,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -712,40 +730,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="35">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -782,6 +809,34 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -868,52 +923,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated" dataDxfId="28"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L27" totalsRowCount="1" headerRowDxfId="26">
   <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort [h]"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1245,7 +1300,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A6" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1455,24 +1510,25 @@
         <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4">
+        <f>84+9+8</f>
+        <v>101</v>
+      </c>
+      <c r="F3" s="5">
+        <f>106-18-6+33</f>
+        <v>115</v>
+      </c>
+      <c r="G3" s="5">
+        <f>132-17-14-11+73+8</f>
+        <v>171</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="F3" s="5">
-        <f>106-18-6</f>
-        <v>82</v>
-      </c>
-      <c r="G3" s="5">
-        <f>132-17-14-11</f>
-        <v>90</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1500,7 +1556,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -1518,16 +1574,11 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
-        <v>25</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="H5" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="7">
-        <f>SUM(G3:G6)</f>
-        <v>132</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1569,13 +1620,11 @@
       <c r="D7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="21">
-        <v>25</v>
-      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
       <c r="H7" s="26" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1586,22 +1635,28 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
-        <v>15</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="H8" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9">
-        <f>6*14</f>
-        <v>84</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" ref="E10:F10" si="0">SUM(E2:E6)</f>
+        <v>168</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G2:G6)</f>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1609,10 +1664,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f>6*14</f>
-        <v>84</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <f>(9+14+5)*6</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D16:D17)</f>
+        <v>272</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18">
+        <f>SUM(Tabelle3[Effort Actual])</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="33">
+        <f>D18-G18</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K25"/>
+    <sheetView zoomScale="131" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1743,7 @@
     <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1699,7 +1795,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>67</v>
@@ -1721,10 +1817,10 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1738,7 +1834,7 @@
         <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>67</v>
@@ -1760,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1777,7 +1873,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>69</v>
@@ -1798,10 +1894,10 @@
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1815,7 +1911,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>68</v>
@@ -1836,10 +1932,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1853,7 +1949,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -1874,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1891,7 +1987,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>25</v>
@@ -1912,10 +2008,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -1929,7 +2025,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
@@ -1950,10 +2046,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -1967,7 +2063,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
@@ -1988,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.9</v>
       </c>
@@ -2005,7 +2101,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -2027,10 +2123,10 @@
         <v>17</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2038,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>68</v>
@@ -2065,10 +2161,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2076,13 +2172,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>68</v>
@@ -2103,10 +2199,10 @@
         <v>14</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -2114,13 +2210,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>24</v>
@@ -2141,14 +2237,10 @@
         <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13">
-        <f>SUM(J11:J21)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2156,13 +2248,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
@@ -2183,10 +2275,10 @@
         <v>9</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2194,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
@@ -2221,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>3.2</v>
       </c>
@@ -2232,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>24</v>
@@ -2259,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,13 +2362,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>69</v>
@@ -2297,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>69</v>
@@ -2335,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,19 +2438,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>5</v>
@@ -2373,7 +2465,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>69</v>
@@ -2412,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>69</v>
@@ -2451,30 +2543,30 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2.11</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -2482,8 +2574,14 @@
       <c r="I22" s="5">
         <v>4</v>
       </c>
+      <c r="J22" s="5">
+        <v>8</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
       <c r="L22" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,13 +2592,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>69</v>
@@ -2514,31 +2612,37 @@
       <c r="I23" s="5">
         <v>8</v>
       </c>
+      <c r="J23" s="5">
+        <v>4</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8</v>
+      </c>
       <c r="L23" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2.13</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>5</v>
@@ -2546,8 +2650,14 @@
       <c r="I24" s="5">
         <v>4</v>
       </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="5">
+        <v>9</v>
+      </c>
       <c r="L24" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2558,13 +2668,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
@@ -2578,25 +2688,32 @@
       <c r="I25" s="5">
         <v>4</v>
       </c>
+      <c r="J25" s="5">
+        <v>8</v>
+      </c>
+      <c r="K25" s="5">
+        <f>3*4+6*4-(2*2)</f>
+        <v>32</v>
+      </c>
       <c r="L25" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2.15</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
@@ -2608,17 +2725,24 @@
         <v>6</v>
       </c>
       <c r="I26" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J26" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K26" s="5">
-        <v>1</v>
+        <f>16+4</f>
+        <v>20</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,10 +2766,10 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="5" max="5" width="107.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2653,7 +2777,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>71</v>
@@ -2662,7 +2786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2677,10 +2801,10 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2695,10 +2819,10 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2713,10 +2837,10 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2731,14 +2855,10 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5">
-        <f>6*(9+14+5)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2753,10 +2873,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2771,10 +2891,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2789,10 +2909,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2810,7 +2930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2825,7 +2945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2840,7 +2960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2855,10 +2975,10 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2873,10 +2993,10 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2891,10 +3011,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2909,7 +3029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2924,7 +3044,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,7 +3077,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2975,7 +3095,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3044,7 +3164,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3140,7 +3260,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,7 +3278,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,7 +3590,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3488,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,7 +3626,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3524,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3593,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE9430-C8FD-4319-959F-8F4B1877912C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9CE6D-C02F-794D-A494-3776CFCCD408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="19660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -739,79 +741,7 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -837,6 +767,78 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -946,29 +948,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L27" totalsRowCount="1" headerRowDxfId="26">
   <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D57" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
-    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort [h]"/>
     <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources [days]"/>
   </tableColumns>
@@ -1303,17 +1305,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="16"/>
+    <col min="7" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -1390,12 +1392,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1431,24 +1433,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1502,7 +1504,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1516,16 +1518,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="4">
-        <f>84+9+8</f>
-        <v>101</v>
+        <f>84+9+8-4</f>
+        <v>97</v>
       </c>
       <c r="F3" s="5">
-        <f>106-18-6+33</f>
-        <v>115</v>
+        <f>106-18-6+33-4</f>
+        <v>111</v>
       </c>
       <c r="G3" s="5">
-        <f>132-17-14-11+73+8</f>
-        <v>171</v>
+        <f>132-17-14-11+73+4</f>
+        <v>167</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>84</v>
@@ -1533,7 +1535,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1561,7 +1563,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1574,14 +1576,22 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="H5" s="26" t="s">
-        <v>111</v>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1645,7 +1655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E10">
         <f t="shared" ref="E10:F10" si="0">SUM(E2:E6)</f>
         <v>168</v>
@@ -1659,17 +1669,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>116</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>117</v>
       </c>
@@ -1686,7 +1696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>118</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F19" s="5" t="s">
         <v>120</v>
       </c>
@@ -1724,26 +1734,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1.9</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -2240,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3.2</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2430,7 +2440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2507,7 +2517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>2.11</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2.12</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2.13</v>
       </c>
@@ -2660,7 +2670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2.14</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2.15</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="27"/>
       <c r="C27" s="5"/>
@@ -2757,19 +2767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="163" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="107.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="107.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2804,7 +2814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2822,7 +2832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2894,7 +2904,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2912,7 +2922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2930,7 +2940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2996,7 +3006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3029,7 +3039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3080,7 +3090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3098,7 +3108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3149,7 +3159,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3167,7 +3177,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3182,7 +3192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3263,7 +3273,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3296,7 +3306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3311,7 +3321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3326,7 +3336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3371,7 +3381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3386,7 +3396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3416,7 +3426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3461,7 +3471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3539,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3557,7 +3567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3611,7 +3621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3629,7 +3639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3680,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9CE6D-C02F-794D-A494-3776CFCCD408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D057D-2C01-5847-B7BE-4EEC76C58512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="19660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>Um unsere Applikation verwenden zu können, muss sich der Facharzt  auf der Login-View authenfizieren. Damit stellen wir sicher, dass die Patientendaten von aussen nicht für Drittpersonen sichtbar sind.</t>
   </si>
   <si>
-    <t>Der Facharzt kann seine Patiententermine auf dem Termin-View strukturiert sehen. Eintragen von zukünftigen Terminen und verwalten von eingetragenen Termine ist möglich. Die Termine werden den Patienten zugeordnet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der Facharzt kann die Patientenstammdaten und die Patientenberichte  auf dem Patienten-View strukturiert sehen. </t>
   </si>
   <si>
@@ -539,6 +536,9 @@
 nippa1 - Koordination programierung MVP &amp; Änderung Datenbank - 8 Std 
 gaupa1 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std 
 velkv1 - Offene Pendenzen bei div. Klassen im Team bearbeiten - 6 Std </t>
+  </si>
+  <si>
+    <t>Der Facharzt kann seine Patiententermine auf dem Termin-View strukturiert sehen. Die Termine werden den Patienten zugeordnet.</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L27" totalsRowCount="1" headerRowDxfId="26">
-  <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+  <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1434,7 +1440,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1499,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1512,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1530,7 +1536,7 @@
         <v>167</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1543,7 +1549,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>5</v>
@@ -1558,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -1571,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1586,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
@@ -1614,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -1625,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>5</v>
@@ -1634,7 +1640,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="22"/>
       <c r="H7" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -1645,14 +1651,14 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4"/>
       <c r="H8" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1676,12 +1682,12 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <f>(9+14+5)*6</f>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>104</v>
@@ -1698,14 +1704,14 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <f>SUM(D16:D17)</f>
         <v>272</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18">
         <f>SUM(Tabelle3[Effort Actual])</f>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F19" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G19" s="33">
         <f>D18-G18</f>
@@ -1734,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1791,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1799,19 +1805,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1827,10 +1833,10 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1838,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -1866,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1877,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>24</v>
@@ -1904,10 +1910,10 @@
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1915,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -1942,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1953,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -1980,10 +1986,10 @@
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -1991,19 +1997,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -2018,10 +2024,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -2029,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
@@ -2056,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -2067,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
@@ -2094,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="49" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1.9</v>
       </c>
@@ -2105,13 +2111,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -2133,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="49" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2144,16 +2150,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
@@ -2171,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2182,16 +2188,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>25</v>
@@ -2209,10 +2215,10 @@
         <v>14</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -2220,19 +2226,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>5</v>
@@ -2247,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2258,13 +2264,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
@@ -2285,10 +2291,10 @@
         <v>9</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2296,13 +2302,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
@@ -2323,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3.2</v>
       </c>
@@ -2334,19 +2340,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>5</v>
@@ -2361,10 +2367,10 @@
         <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2372,16 +2378,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>24</v>
@@ -2399,10 +2405,10 @@
         <v>3</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2410,16 +2416,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>24</v>
@@ -2437,10 +2443,10 @@
         <v>14</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2448,19 +2454,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>5</v>
@@ -2475,10 +2481,10 @@
         <v>28</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2486,16 +2492,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>24</v>
@@ -2514,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2525,16 +2531,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>83</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
@@ -2553,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -2564,19 +2570,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -2591,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2602,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>24</v>
@@ -2629,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -2640,19 +2646,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>5</v>
@@ -2667,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -2678,13 +2684,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>99</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
@@ -2706,7 +2712,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -2717,13 +2723,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
@@ -2745,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2787,13 +2793,13 @@
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2811,7 +2817,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,7 +2835,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,7 +2853,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -2865,7 +2871,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2883,7 +2889,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -2901,7 +2907,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -2919,7 +2925,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2937,7 +2943,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2985,7 +2991,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -3003,7 +3009,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -3021,7 +3027,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3054,7 +3060,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,7 +3093,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3105,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3138,7 +3144,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3156,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3174,7 +3180,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3252,7 +3258,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3270,7 +3276,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3288,7 +3294,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3564,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3582,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3600,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3618,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3636,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3654,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3672,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3705,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3723,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task-04/Scrum/scrum_group_white_2019.xlsx
+++ b/doc/task-04/Scrum/scrum_group_white_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D057D-2C01-5847-B7BE-4EEC76C58512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32A822-6BFC-43BB-9726-75EF9EC9AC5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="19660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -382,24 +382,6 @@
   </si>
   <si>
     <t>Gesamtprojekt scannen und allfällige Fehler beheben und testen mit jUnit</t>
-  </si>
-  <si>
-    <t>BurndownChart</t>
-  </si>
-  <si>
-    <t>Zeitbudget</t>
-  </si>
-  <si>
-    <t>Überzogen</t>
-  </si>
-  <si>
-    <t>Total zu verbuchen</t>
-  </si>
-  <si>
-    <t>Bereits verbucht</t>
-  </si>
-  <si>
-    <t>Noch zu verbuchen</t>
   </si>
   <si>
     <t xml:space="preserve">Patient:
@@ -741,7 +723,7 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -946,13 +928,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L27" totalsRowCount="1" headerRowDxfId="26">
-  <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L26" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1311,17 +1287,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="16"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="16"/>
     <col min="6" max="6" width="49" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="16"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1365,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
@@ -1387,7 +1363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -1398,12 +1374,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
     </row>
   </sheetData>
@@ -1439,24 +1415,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A6" zoomScale="131" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1510,7 +1486,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1541,7 +1517,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1569,7 +1545,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1577,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1597,7 +1573,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1623,7 +1599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1643,7 +1619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1661,71 +1637,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <f t="shared" ref="E10:F10" si="0">SUM(E2:E6)</f>
-        <v>168</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G2:G6)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16">
-        <f>(9+14+5)*6</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D16:D17)</f>
-        <v>272</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18">
-        <f>SUM(Tabelle3[Effort Actual])</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="33">
-        <f>D18-G18</f>
-        <v>0</v>
-      </c>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,22 +1665,22 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1836,7 +1757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.2</v>
       </c>
@@ -1875,7 +1796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1913,7 +1834,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -1951,7 +1872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1.5</v>
       </c>
@@ -1989,7 +1910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
@@ -2027,7 +1948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1.7</v>
       </c>
@@ -2065,7 +1986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.8</v>
       </c>
@@ -2103,7 +2024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="49" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.9</v>
       </c>
@@ -2142,7 +2063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="49" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -2180,7 +2101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.21</v>
       </c>
@@ -2218,7 +2139,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -2256,7 +2177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -2294,7 +2215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2.4</v>
       </c>
@@ -2332,7 +2253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>3.2</v>
       </c>
@@ -2340,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>109</v>
@@ -2370,7 +2291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.6</v>
       </c>
@@ -2378,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>109</v>
@@ -2408,7 +2329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2.7</v>
       </c>
@@ -2416,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>109</v>
@@ -2446,7 +2367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2.8</v>
       </c>
@@ -2484,7 +2405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.9</v>
       </c>
@@ -2523,7 +2444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -2562,7 +2483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2.11</v>
       </c>
@@ -2600,7 +2521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2.12</v>
       </c>
@@ -2638,7 +2559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2.13</v>
       </c>
@@ -2676,7 +2597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2.14</v>
       </c>
@@ -2715,7 +2636,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2.15</v>
       </c>
@@ -2754,7 +2675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="27"/>
       <c r="C27" s="5"/>
@@ -2777,15 +2698,15 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="107.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="107.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +2723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2817,10 +2738,10 @@
         <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2835,10 +2756,10 @@
         <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2853,10 +2774,10 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2871,10 +2792,10 @@
         <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2889,10 +2810,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2907,10 +2828,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2925,10 +2846,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2946,7 +2867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2961,7 +2882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2976,7 +2897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2991,10 +2912,10 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3009,10 +2930,10 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3027,10 +2948,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3045,7 +2966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3060,10 +2981,10 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3078,7 +2999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3093,10 +3014,10 @@
         <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3111,10 +3032,10 @@
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3129,7 +3050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3144,10 +3065,10 @@
         <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3162,10 +3083,10 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3180,10 +3101,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3198,7 +3119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3213,7 +3134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3228,7 +3149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3243,7 +3164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3258,10 +3179,10 @@
         <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3276,10 +3197,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3297,7 +3218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3312,7 +3233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3327,7 +3248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3342,7 +3263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3357,7 +3278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3372,7 +3293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3387,7 +3308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3402,7 +3323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3417,7 +3338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3432,7 +3353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3447,7 +3368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3462,7 +3383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3477,7 +3398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3492,7 +3413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3507,10 +3428,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3525,7 +3446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3540,7 +3461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3555,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3570,10 +3491,10 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3588,10 +3509,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3606,10 +3527,10 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3624,10 +3545,10 @@
         <v>6</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3642,10 +3563,10 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3660,10 +3581,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3678,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3696,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3711,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
